--- a/data/2024_Supersite_list w Chairs & Cochairs.xlsx
+++ b/data/2024_Supersite_list w Chairs & Cochairs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brucenorikane/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bocodems.sharepoint.com/sites/Caucus/Shared Documents/General/2024/Supersites/SuperSite Locations Chairs, CoChairs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E77002D7-695C-4A46-BE62-F3DC0CC3E70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2131" documentId="14_{DBB1ED34-521D-41D9-8D03-BB8A8591BB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD5CCD09-5BB1-4189-8A00-DB1E7393D07C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{49D4A4B5-E834-E54D-80BB-54A0943A8FAB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{49D4A4B5-E834-E54D-80BB-54A0943A8FAB}"/>
   </bookViews>
   <sheets>
     <sheet name="2020 Supersite Summary" sheetId="3" state="hidden" r:id="rId1"/>
@@ -4712,9 +4712,6 @@
     <t>robert@ontosmedia.com</t>
   </si>
   <si>
-    <t>Recap as of 1/13/2024</t>
-  </si>
-  <si>
     <t>9134493752</t>
   </si>
   <si>
@@ -4797,6 +4794,9 @@
   </si>
   <si>
     <t>Angie Layton, Linda Lee</t>
+  </si>
+  <si>
+    <t>Recap as of 1/14/2024</t>
   </si>
 </sst>
 </file>
@@ -7421,7 +7421,7 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
@@ -7440,7 +7440,7 @@
     <col min="17" max="17" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>13</v>
       </c>
@@ -7538,7 +7538,7 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>25</v>
       </c>
@@ -7583,7 +7583,7 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>36</v>
       </c>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>50</v>
       </c>
@@ -7671,7 +7671,7 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="7"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>57</v>
       </c>
@@ -7708,7 +7708,7 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>64</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>57</v>
       </c>
@@ -7792,7 +7792,7 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>82</v>
       </c>
@@ -7829,7 +7829,7 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>88</v>
       </c>
@@ -7874,7 +7874,7 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>99</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>57</v>
       </c>
@@ -7964,7 +7964,7 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>120</v>
       </c>
@@ -8001,7 +8001,7 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>127</v>
       </c>
@@ -8046,7 +8046,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>138</v>
       </c>
@@ -8091,7 +8091,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>149</v>
       </c>
@@ -8128,7 +8128,7 @@
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>157</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>172</v>
       </c>
@@ -8218,7 +8218,7 @@
       <c r="P18" s="32"/>
       <c r="Q18" s="32"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>178</v>
       </c>
@@ -8263,7 +8263,7 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="32"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>189</v>
       </c>
@@ -8308,7 +8308,7 @@
       <c r="P20" s="32"/>
       <c r="Q20" s="32"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>200</v>
       </c>
@@ -8345,7 +8345,7 @@
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>207</v>
       </c>
@@ -8390,7 +8390,7 @@
       <c r="P22" s="32"/>
       <c r="Q22" s="32"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="9" t="s">
         <v>217</v>
@@ -8423,7 +8423,7 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="9" t="s">
         <v>223</v>
@@ -8456,7 +8456,7 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="9" t="s">
         <v>229</v>
@@ -8489,7 +8489,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E26" s="1">
         <f>SUM(E2:E25)</f>
         <v>240</v>
@@ -8519,7 +8519,7 @@
       <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -8528,7 +8528,7 @@
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="189" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="189" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="307" t="s">
         <v>320</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="228" t="s">
         <v>341</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>80540</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="228" t="s">
         <v>342</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="228" t="s">
         <v>256</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="228" t="s">
         <v>343</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="228" t="s">
         <v>26</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>80304</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="228" t="s">
         <v>344</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="228" t="s">
         <v>345</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>80304</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="228" t="s">
         <v>346</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>80027</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="228" t="s">
         <v>150</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>80516</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="228" t="s">
         <v>347</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>80302</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="228" t="s">
         <v>348</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>80455</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="228" t="s">
         <v>158</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>80501</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="228" t="s">
         <v>350</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>80540</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="228" t="s">
         <v>351</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>80303</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="228" t="s">
         <v>352</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>80027</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="228" t="s">
         <v>114</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>80466</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="228" t="s">
         <v>300</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="228" t="s">
         <v>128</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>80305</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="228" t="s">
         <v>208</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>80504</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="228" t="s">
         <v>353</v>
       </c>
@@ -8916,7 +8916,7 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -8942,7 +8942,7 @@
     <col min="25" max="25" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="131" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="131" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="122" t="s">
         <v>235</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="111"/>
       <c r="B2" s="44" t="s">
         <v>249</v>
@@ -9066,7 +9066,7 @@
       <c r="X2" s="49"/>
       <c r="Y2" s="49"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="112"/>
       <c r="B3" s="53" t="s">
         <v>252</v>
@@ -9125,7 +9125,7 @@
       <c r="X3" s="49"/>
       <c r="Y3" s="49"/>
     </row>
-    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="113"/>
       <c r="B4" s="59" t="s">
         <v>255</v>
@@ -9158,7 +9158,7 @@
       <c r="X4" s="49"/>
       <c r="Y4" s="49"/>
     </row>
-    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="114"/>
       <c r="B5" s="64" t="s">
         <v>257</v>
@@ -9193,7 +9193,7 @@
       <c r="X5" s="69"/>
       <c r="Y5" s="69"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="113"/>
       <c r="B6" s="59" t="s">
         <v>255</v>
@@ -9254,7 +9254,7 @@
       <c r="X6" s="49"/>
       <c r="Y6" s="49"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="113"/>
       <c r="B7" s="59" t="s">
         <v>255</v>
@@ -9319,7 +9319,7 @@
       </c>
       <c r="Y7" s="49"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="115"/>
       <c r="B8" s="71" t="s">
         <v>265</v>
@@ -9370,7 +9370,7 @@
       <c r="X8" s="63"/>
       <c r="Y8" s="49"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="111"/>
       <c r="B9" s="44" t="s">
         <v>249</v>
@@ -9417,7 +9417,7 @@
       <c r="X9" s="49"/>
       <c r="Y9" s="49"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="116"/>
       <c r="B10" s="78" t="s">
         <v>270</v>
@@ -9468,7 +9468,7 @@
       <c r="X10" s="49"/>
       <c r="Y10" s="49"/>
     </row>
-    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="113"/>
       <c r="B11" s="59" t="s">
         <v>255</v>
@@ -9501,7 +9501,7 @@
       <c r="X11" s="49"/>
       <c r="Y11" s="49"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="113"/>
       <c r="B12" s="83" t="s">
         <v>255</v>
@@ -9548,7 +9548,7 @@
       <c r="X12" s="49"/>
       <c r="Y12" s="49"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="111"/>
       <c r="B13" s="45" t="s">
         <v>249</v>
@@ -9601,7 +9601,7 @@
       <c r="X13" s="49"/>
       <c r="Y13" s="49"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="117"/>
       <c r="B14" s="85" t="s">
         <v>279</v>
@@ -9668,7 +9668,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="114"/>
       <c r="B15" s="64" t="s">
         <v>257</v>
@@ -9703,7 +9703,7 @@
       <c r="X15" s="69"/>
       <c r="Y15" s="69"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="111"/>
       <c r="B16" s="45" t="s">
         <v>249</v>
@@ -9748,7 +9748,7 @@
       <c r="X16" s="49"/>
       <c r="Y16" s="49"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="114"/>
       <c r="B17" s="65" t="s">
         <v>257</v>
@@ -9815,7 +9815,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="118"/>
       <c r="B18" s="91" t="s">
         <v>288</v>
@@ -9866,7 +9866,7 @@
       <c r="X18" s="49"/>
       <c r="Y18" s="49"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="119"/>
       <c r="B19" s="96" t="s">
         <v>249</v>
@@ -9917,7 +9917,7 @@
       <c r="X19" s="52"/>
       <c r="Y19" s="52"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="113"/>
       <c r="B20" s="59" t="s">
         <v>255</v>
@@ -9976,7 +9976,7 @@
       <c r="X20" s="49"/>
       <c r="Y20" s="49"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="118"/>
       <c r="B21" s="91" t="s">
         <v>288</v>
@@ -10045,7 +10045,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="111"/>
       <c r="B22" s="45" t="s">
         <v>249</v>
@@ -10096,7 +10096,7 @@
       <c r="X22" s="49"/>
       <c r="Y22" s="49"/>
     </row>
-    <row r="23" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="117"/>
       <c r="B23" s="85" t="s">
         <v>279</v>
@@ -10131,7 +10131,7 @@
       <c r="X23" s="52"/>
       <c r="Y23" s="52"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="113"/>
       <c r="B24" s="59" t="s">
         <v>255</v>
@@ -10182,7 +10182,7 @@
       <c r="X24" s="49"/>
       <c r="Y24" s="49"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="114"/>
       <c r="B25" s="65" t="s">
         <v>257</v>
@@ -10241,7 +10241,7 @@
       <c r="X25" s="102"/>
       <c r="Y25" s="102"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="113"/>
       <c r="B26" s="59" t="s">
         <v>255</v>
@@ -10300,7 +10300,7 @@
       <c r="X26" s="49"/>
       <c r="Y26" s="49"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="114"/>
       <c r="B27" s="65" t="s">
         <v>257</v>
@@ -10361,7 +10361,7 @@
       <c r="X27" s="102"/>
       <c r="Y27" s="102"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="114"/>
       <c r="B28" s="65" t="s">
         <v>257</v>
@@ -10414,7 +10414,7 @@
       <c r="X28" s="65"/>
       <c r="Y28" s="65"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="114"/>
       <c r="B29" s="65" t="s">
         <v>257</v>
@@ -10473,7 +10473,7 @@
       <c r="X29" s="102"/>
       <c r="Y29" s="102"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="120"/>
       <c r="B30" s="104" t="s">
         <v>255</v>
@@ -10532,7 +10532,7 @@
       <c r="X30" s="36"/>
       <c r="Y30" s="36"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C31" s="35"/>
       <c r="M31" s="1">
         <f>SUM(M3:M30)</f>
@@ -10564,13 +10564,13 @@
   <dimension ref="A1:HE28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -10619,9 +10619,9 @@
     <col min="195" max="213" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:213" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:213" x14ac:dyDescent="0.35">
       <c r="A1" s="266" t="s">
-        <v>1548</v>
+        <v>1576</v>
       </c>
       <c r="B1" s="266"/>
       <c r="C1" s="285"/>
@@ -10629,7 +10629,10 @@
         <f>(D2/C2)</f>
         <v>2.5000000000000005E-2</v>
       </c>
-      <c r="E1" s="263"/>
+      <c r="E1" s="263">
+        <f>('Supersite Working-AW'!B1)</f>
+        <v>193</v>
+      </c>
       <c r="F1" s="312" t="s">
         <v>318</v>
       </c>
@@ -10860,7 +10863,7 @@
       <c r="HD1" s="282"/>
       <c r="HE1" s="282"/>
     </row>
-    <row r="2" spans="1:213" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:213" x14ac:dyDescent="0.35">
       <c r="A2" s="283">
         <f>COUNTA(A5:A25)</f>
         <v>20</v>
@@ -11115,7 +11118,7 @@
       <c r="HD2" s="282"/>
       <c r="HE2" s="282"/>
     </row>
-    <row r="3" spans="1:213" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:213" x14ac:dyDescent="0.35">
       <c r="A3" s="191"/>
       <c r="B3" s="191"/>
       <c r="C3" s="285"/>
@@ -11411,7 +11414,7 @@
       <c r="HD3" s="282"/>
       <c r="HE3" s="282"/>
     </row>
-    <row r="4" spans="1:213" s="287" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:213" s="287" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="287" t="s">
         <v>320</v>
       </c>
@@ -11584,7 +11587,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="5" spans="1:213" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:213" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>341</v>
       </c>
@@ -11605,8 +11608,8 @@
         <v>1</v>
       </c>
       <c r="F5" s="304" t="str">
-        <f t="shared" ref="F5:F24" si="2">(G5&amp;","&amp;H5&amp;","&amp;I5&amp;","&amp;J5&amp;","&amp;K5&amp;","&amp;L5&amp;","&amp;M5&amp;","&amp;N5&amp;","&amp;O5&amp;","&amp;P5&amp;","&amp;Q5&amp;","&amp;R5&amp;","&amp;S5&amp;","&amp;T5&amp;","&amp;U5&amp;","&amp;V5&amp;","&amp;W5&amp;","&amp;X5&amp;","&amp;Y5)</f>
-        <v>914,,,,,,,,,,,,,,,,,,</v>
+        <f t="shared" ref="F5:F9" si="2">(G5&amp;","&amp;H5&amp;","&amp;I5&amp;","&amp;J5&amp;","&amp;K5&amp;","&amp;L5&amp;","&amp;M5&amp;","&amp;N5&amp;","&amp;O5&amp;","&amp;P5&amp;","&amp;Q5&amp;","&amp;R5&amp;","&amp;S5&amp;","&amp;T5&amp;","&amp;U5&amp;","&amp;V5&amp;","&amp;W5&amp;","&amp;X5&amp;","&amp;Y5&amp;","&amp;Z5)</f>
+        <v>914,,,,,,,,,,,,,,,,,,,</v>
       </c>
       <c r="G5" s="1">
         <v>914</v>
@@ -11703,7 +11706,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:213" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:213" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>342</v>
       </c>
@@ -11720,12 +11723,12 @@
         <v>187.95000000000002</v>
       </c>
       <c r="E6" s="1">
-        <f>COUNTA(H6:AE6)</f>
+        <f>COUNTA(G6:AE6)</f>
         <v>14</v>
       </c>
       <c r="F6" s="304" t="str">
         <f t="shared" si="2"/>
-        <v>605,606,607,608,609,610,611,614,615,616,624,625,630,631,631,,,,</v>
+        <v>605,606,607,608,609,610,611,614,615,616,624,625,630,631,,,,,,</v>
       </c>
       <c r="G6" s="1">
         <v>605</v>
@@ -11767,9 +11770,6 @@
         <v>630</v>
       </c>
       <c r="T6" s="1">
-        <v>631</v>
-      </c>
-      <c r="U6" s="1">
         <v>631</v>
       </c>
       <c r="AF6" s="1">
@@ -11866,7 +11866,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:213" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:213" ht="31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>256</v>
       </c>
@@ -11888,7 +11888,7 @@
       </c>
       <c r="F7" s="304" t="str">
         <f t="shared" si="2"/>
-        <v>810,817,818,820,821,828,829,831,832,833,,,,,,,,,</v>
+        <v>810,817,818,820,821,828,829,831,832,833,,,,,,,,,,</v>
       </c>
       <c r="G7" s="1">
         <v>810</v>
@@ -12016,7 +12016,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:213" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:213" ht="31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>343</v>
       </c>
@@ -12038,7 +12038,7 @@
       </c>
       <c r="F8" s="304" t="str">
         <f t="shared" si="2"/>
-        <v>600,601,602,603,604,612,613,,,,,,,,,,,,</v>
+        <v>600,601,602,603,604,612,613,,,,,,,,,,,,,</v>
       </c>
       <c r="G8" s="1">
         <v>600</v>
@@ -12154,7 +12154,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:213" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:213" ht="31" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -12176,7 +12176,7 @@
       </c>
       <c r="F9" s="304" t="str">
         <f t="shared" si="2"/>
-        <v>822,823,824,825,826,827,910,,,,,,,,,,,,</v>
+        <v>822,823,824,825,826,827,910,,,,,,,,,,,,,</v>
       </c>
       <c r="G9" s="1">
         <v>822</v>
@@ -12292,7 +12292,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:213" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:213" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>344</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:213" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:213" ht="31" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>345</v>
       </c>
@@ -12486,7 +12486,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="304" t="str">
-        <f>(G11&amp;","&amp;H11&amp;","&amp;I11&amp;","&amp;J11&amp;","&amp;K11&amp;","&amp;L11&amp;","&amp;M11&amp;","&amp;N11&amp;","&amp;O11&amp;","&amp;P11&amp;","&amp;Q11&amp;","&amp;R11&amp;","&amp;S11&amp;","&amp;T11&amp;","&amp;U11&amp;","&amp;V11&amp;","&amp;W11&amp;","&amp;X11&amp;","&amp;Y11&amp;","&amp;Z11)</f>
+        <f t="shared" ref="F11:F24" si="10">(G11&amp;","&amp;H11&amp;","&amp;I11&amp;","&amp;J11&amp;","&amp;K11&amp;","&amp;L11&amp;","&amp;M11&amp;","&amp;N11&amp;","&amp;O11&amp;","&amp;P11&amp;","&amp;Q11&amp;","&amp;R11&amp;","&amp;S11&amp;","&amp;T11&amp;","&amp;U11&amp;","&amp;V11&amp;","&amp;W11&amp;","&amp;X11&amp;","&amp;Y11&amp;","&amp;Z11)</f>
         <v>803,804,805,806,807,811,812,813,814,815,816,911,912,,,,,,,</v>
       </c>
       <c r="G11" s="1">
@@ -12624,7 +12624,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:213" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:213" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>346</v>
       </c>
@@ -12645,8 +12645,8 @@
         <v>8</v>
       </c>
       <c r="F12" s="304" t="str">
-        <f t="shared" si="2"/>
-        <v>3,100,101,102,103,104,105,106,,,,,,,,,,,</v>
+        <f t="shared" si="10"/>
+        <v>3,100,101,102,103,104,105,106,,,,,,,,,,,,</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
@@ -12765,7 +12765,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:213" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:213" ht="31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>150</v>
       </c>
@@ -12786,8 +12786,8 @@
         <v>9</v>
       </c>
       <c r="F13" s="304" t="str">
-        <f t="shared" si="2"/>
-        <v>400,401,402,403,404,405,406,407,408,,,,,,,,,,</v>
+        <f t="shared" si="10"/>
+        <v>400,401,402,403,404,405,406,407,408,,,,,,,,,,,</v>
       </c>
       <c r="G13" s="1">
         <v>400</v>
@@ -12912,7 +12912,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:213" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:213" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" s="191" t="s">
         <v>347</v>
       </c>
@@ -12933,8 +12933,8 @@
         <v>1</v>
       </c>
       <c r="F14" s="304" t="str">
-        <f t="shared" si="2"/>
-        <v>909,,,,,,,,,,,,,,,,,,</v>
+        <f t="shared" si="10"/>
+        <v>909,,,,,,,,,,,,,,,,,,,</v>
       </c>
       <c r="G14" s="1">
         <v>909</v>
@@ -13028,13 +13028,13 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:213" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:213" ht="31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>348</v>
       </c>
       <c r="B15" t="str">
         <f>+INDEX('Supersite Working-AW'!$O$3:$R$196,MATCH('Recap SS &amp; Precinct #s'!$A15,'Supersite Working-AW'!$R$3:$R$196,0),1)</f>
-        <v>Boulder</v>
+        <v>Mountains</v>
       </c>
       <c r="C15" s="265">
         <f>SUMIF('Supersite Working-AW'!$R$3:$R$196,$A15,'Supersite Working-AW'!$L$3:$L$198)</f>
@@ -13049,8 +13049,8 @@
         <v>1</v>
       </c>
       <c r="F15" s="304" t="str">
-        <f t="shared" si="2"/>
-        <v>913,,,,,,,,,,,,,,,,,,</v>
+        <f t="shared" si="10"/>
+        <v>913,,,,,,,,,,,,,,,,,,,</v>
       </c>
       <c r="G15" s="1">
         <v>913</v>
@@ -13148,7 +13148,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:213" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:213" ht="31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -13169,8 +13169,8 @@
         <v>18</v>
       </c>
       <c r="F16" s="304" t="str">
-        <f t="shared" si="2"/>
-        <v>626,627,628,629,643,644,645,646,617,632,641,642,647,648,649,703,704,705,</v>
+        <f t="shared" si="10"/>
+        <v>626,627,628,629,643,644,645,646,617,632,641,642,647,648,649,703,704,705,,</v>
       </c>
       <c r="G16" s="191">
         <v>626</v>
@@ -13326,7 +13326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:57" ht="31" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>350</v>
       </c>
@@ -13347,8 +13347,8 @@
         <v>5</v>
       </c>
       <c r="F17" s="304" t="str">
-        <f t="shared" si="2"/>
-        <v>700,701,702,915,916,,,,,,,,,,,,,,</v>
+        <f t="shared" si="10"/>
+        <v>700,701,702,915,916,,,,,,,,,,,,,,,</v>
       </c>
       <c r="G17" s="1">
         <v>700</v>
@@ -13454,7 +13454,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:57" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:57" ht="31" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>351</v>
       </c>
@@ -13475,8 +13475,8 @@
         <v>13</v>
       </c>
       <c r="F18" s="304" t="str">
-        <f t="shared" si="2"/>
-        <v>4,834,835,836,837,838,839,840,841,842,848,849,900,,,,,,</v>
+        <f t="shared" si="10"/>
+        <v>4,834,835,836,837,838,839,840,841,842,848,849,900,,,,,,,</v>
       </c>
       <c r="G18" s="191">
         <v>4</v>
@@ -13618,7 +13618,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:57" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:57" ht="31" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>352</v>
       </c>
@@ -13639,8 +13639,8 @@
         <v>13</v>
       </c>
       <c r="F19" s="304" t="str">
-        <f t="shared" si="2"/>
-        <v>200,201,202,203,204,205,206,207,208,209,210,211,212,,,,,,</v>
+        <f t="shared" si="10"/>
+        <v>200,201,202,203,204,205,206,207,208,209,210,211,212,,,,,,,</v>
       </c>
       <c r="G19" s="1">
         <v>200</v>
@@ -13773,7 +13773,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:57" ht="31" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>114</v>
       </c>
@@ -13794,8 +13794,8 @@
         <v>6</v>
       </c>
       <c r="F20" s="304" t="str">
-        <f t="shared" si="2"/>
-        <v>901,902,903,904,905,907,,,,,,,,,,,,,</v>
+        <f t="shared" si="10"/>
+        <v>901,902,903,904,905,907,,,,,,,,,,,,,,</v>
       </c>
       <c r="G20" s="1">
         <v>901</v>
@@ -13908,7 +13908,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:57" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:57" ht="31" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>300</v>
       </c>
@@ -13929,8 +13929,8 @@
         <v>14</v>
       </c>
       <c r="F21" s="304" t="str">
-        <f t="shared" si="2"/>
-        <v>503,504,505,506,507,508,509,510,800,801,802,808,809,819,,,,,</v>
+        <f t="shared" si="10"/>
+        <v>503,504,505,506,507,508,509,510,800,801,802,808,809,819,,,,,,</v>
       </c>
       <c r="G21" s="1">
         <v>503</v>
@@ -14047,7 +14047,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="1:57" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:57" ht="31" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>128</v>
       </c>
@@ -14068,8 +14068,8 @@
         <v>15</v>
       </c>
       <c r="F22" s="304" t="str">
-        <f t="shared" si="2"/>
-        <v>830,843,844,845,846,847,850,851,852,853,854,855,856,857,906,,,,</v>
+        <f t="shared" si="10"/>
+        <v>830,843,844,845,846,847,850,851,852,853,854,855,856,857,906,,,,,</v>
       </c>
       <c r="G22" s="1">
         <v>830</v>
@@ -14215,7 +14215,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:57" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:57" ht="31" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>208</v>
       </c>
@@ -14236,8 +14236,8 @@
         <v>17</v>
       </c>
       <c r="F23" s="304" t="str">
-        <f t="shared" si="2"/>
-        <v>2,618,619,620,621,622,623,633,634,635,636,637,638,639,640,650,651,,</v>
+        <f t="shared" si="10"/>
+        <v>2,618,619,620,621,622,623,633,634,635,636,637,638,639,640,650,651,,,</v>
       </c>
       <c r="G23" s="265">
         <v>2</v>
@@ -14392,7 +14392,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:57" ht="31" x14ac:dyDescent="0.35">
       <c r="A24" s="191" t="s">
         <v>353</v>
       </c>
@@ -14413,8 +14413,8 @@
         <v>1</v>
       </c>
       <c r="F24" s="304" t="str">
-        <f t="shared" si="2"/>
-        <v>908,,,,,,,,,,,,,,,,,,</v>
+        <f t="shared" si="10"/>
+        <v>908,,,,,,,,,,,,,,,,,,,</v>
       </c>
       <c r="G24" s="265">
         <v>908</v>
@@ -14535,17 +14535,17 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.35">
       <c r="D26" s="191"/>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.35">
       <c r="D27" s="191"/>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.35">
       <c r="D28" s="191"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" autoFilter="0"/>
   <autoFilter ref="A4:HI24" xr:uid="{79A5CEB4-36AF-4899-9A3E-058794C16674}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C30:C46">
     <sortCondition ref="C30:C46"/>
@@ -14577,16 +14577,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB482DDE-1DFC-48D3-A733-D9657488584C}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AF206"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="P1" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="X55" sqref="X55"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -14614,7 +14613,7 @@
     <col min="30" max="30" width="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1">
         <f>COUNTA(B4:B196)</f>
         <v>193</v>
@@ -14653,7 +14652,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="272" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" s="272" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="266" t="s">
         <v>320</v>
       </c>
@@ -14741,7 +14740,7 @@
       <c r="AE2" s="293"/>
       <c r="AF2" s="293"/>
     </row>
-    <row r="3" spans="1:32" s="208" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" s="208" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="191"/>
       <c r="B3" s="243"/>
       <c r="C3" s="243"/>
@@ -14777,7 +14776,7 @@
       <c r="AE3" s="296"/>
       <c r="AF3" s="296"/>
     </row>
-    <row r="4" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="191" t="s">
         <v>378</v>
       </c>
@@ -14843,7 +14842,7 @@
         <v>111658139</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="191" t="s">
         <v>26</v>
       </c>
@@ -14908,7 +14907,7 @@
         <v>107152870</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="191" t="s">
         <v>256</v>
       </c>
@@ -14973,7 +14972,7 @@
         <v>107152870</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="191" t="s">
         <v>256</v>
       </c>
@@ -15038,7 +15037,7 @@
         <v>107152870</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="191" t="s">
         <v>256</v>
       </c>
@@ -15103,7 +15102,7 @@
         <v>107152870</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="191" t="s">
         <v>256</v>
       </c>
@@ -15171,7 +15170,7 @@
         <v>107152870</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="191" t="s">
         <v>256</v>
       </c>
@@ -15238,7 +15237,7 @@
         <v>107152870</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="191" t="s">
         <v>256</v>
       </c>
@@ -15303,7 +15302,7 @@
         <v>107152870</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="191" t="s">
         <v>256</v>
       </c>
@@ -15368,7 +15367,7 @@
         <v>107152870</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="191" t="s">
         <v>256</v>
       </c>
@@ -15433,7 +15432,7 @@
         <v>107152870</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="191" t="s">
         <v>256</v>
       </c>
@@ -15507,7 +15506,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="191" t="s">
         <v>26</v>
       </c>
@@ -15569,7 +15568,7 @@
         <v>147521014</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="191" t="s">
         <v>26</v>
       </c>
@@ -15631,7 +15630,7 @@
         <v>147521014</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="191" t="s">
         <v>26</v>
       </c>
@@ -15693,7 +15692,7 @@
         <v>147521014</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="191" t="s">
         <v>26</v>
       </c>
@@ -15755,7 +15754,7 @@
         <v>147521014</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="191" t="s">
         <v>26</v>
       </c>
@@ -15817,7 +15816,7 @@
         <v>147521014</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="191" t="s">
         <v>26</v>
       </c>
@@ -15879,7 +15878,7 @@
         <v>147521014</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="191" t="s">
         <v>26</v>
       </c>
@@ -15944,7 +15943,7 @@
         <v>147521014</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="191" t="s">
         <v>345</v>
       </c>
@@ -16009,7 +16008,7 @@
         <v>107152440</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="191" t="s">
         <v>345</v>
       </c>
@@ -16074,7 +16073,7 @@
         <v>107152440</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="191" t="s">
         <v>345</v>
       </c>
@@ -16139,7 +16138,7 @@
         <v>107152440</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="191" t="s">
         <v>26</v>
       </c>
@@ -16204,7 +16203,7 @@
         <v>107152440</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="191" t="s">
         <v>26</v>
       </c>
@@ -16269,7 +16268,7 @@
         <v>107152440</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="191" t="s">
         <v>345</v>
       </c>
@@ -16332,7 +16331,7 @@
         <v>107152440</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="191" t="s">
         <v>345</v>
       </c>
@@ -16401,7 +16400,7 @@
         <v>107152440</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="191" t="s">
         <v>345</v>
       </c>
@@ -16466,7 +16465,7 @@
         <v>107152440</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="191" t="s">
         <v>345</v>
       </c>
@@ -16531,7 +16530,7 @@
         <v>107152440</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="191" t="s">
         <v>345</v>
       </c>
@@ -16596,7 +16595,7 @@
         <v>107152440</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="191" t="s">
         <v>345</v>
       </c>
@@ -16661,7 +16660,7 @@
         <v>107152440</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="191" t="s">
         <v>345</v>
       </c>
@@ -16728,7 +16727,7 @@
         <v>107152440</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="191" t="s">
         <v>345</v>
       </c>
@@ -16798,7 +16797,7 @@
         <v>107152440</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="191" t="s">
         <v>418</v>
       </c>
@@ -16860,7 +16859,7 @@
         <v>107146029</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="191" t="s">
         <v>418</v>
       </c>
@@ -16922,7 +16921,7 @@
         <v>107146029</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="191" t="s">
         <v>418</v>
       </c>
@@ -16984,7 +16983,7 @@
         <v>107146029</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="191" t="s">
         <v>418</v>
       </c>
@@ -17046,7 +17045,7 @@
         <v>107146029</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="191" t="s">
         <v>418</v>
       </c>
@@ -17108,7 +17107,7 @@
         <v>107146029</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="191" t="s">
         <v>418</v>
       </c>
@@ -17170,7 +17169,7 @@
         <v>107146029</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="191" t="s">
         <v>418</v>
       </c>
@@ -17232,7 +17231,7 @@
         <v>107146029</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="191" t="s">
         <v>418</v>
       </c>
@@ -17297,7 +17296,7 @@
         <v>107146029</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="191" t="s">
         <v>424</v>
       </c>
@@ -17362,7 +17361,7 @@
         <v>144328289</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="191" t="s">
         <v>424</v>
       </c>
@@ -17427,7 +17426,7 @@
         <v>144328289</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="191" t="s">
         <v>424</v>
       </c>
@@ -17492,7 +17491,7 @@
         <v>144328289</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="191" t="s">
         <v>424</v>
       </c>
@@ -17557,7 +17556,7 @@
         <v>144328289</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="191" t="s">
         <v>424</v>
       </c>
@@ -17622,7 +17621,7 @@
         <v>144328289</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="191" t="s">
         <v>424</v>
       </c>
@@ -17687,7 +17686,7 @@
         <v>144328289</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="191" t="s">
         <v>424</v>
       </c>
@@ -17752,7 +17751,7 @@
         <v>144328289</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="191" t="s">
         <v>424</v>
       </c>
@@ -17819,7 +17818,7 @@
         <v>144328289</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="191" t="s">
         <v>424</v>
       </c>
@@ -17889,7 +17888,7 @@
         <v>144328289</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="191" t="s">
         <v>430</v>
       </c>
@@ -17959,7 +17958,7 @@
         <v>107152370</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="191" t="s">
         <v>430</v>
       </c>
@@ -18029,7 +18028,7 @@
         <v>107152370</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="191" t="s">
         <v>430</v>
       </c>
@@ -18101,7 +18100,7 @@
         <v>107152370</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="191" t="s">
         <v>442</v>
       </c>
@@ -18160,7 +18159,7 @@
         <v>107152390</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="191" t="s">
         <v>444</v>
       </c>
@@ -18222,7 +18221,7 @@
         <v>107152772</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="191" t="s">
         <v>444</v>
       </c>
@@ -18266,7 +18265,7 @@
         <v>18.975000000000001</v>
       </c>
       <c r="O57" s="191" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="P57" s="191"/>
       <c r="Q57" s="191"/>
@@ -18287,7 +18286,7 @@
         <v>122990310</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="191" t="s">
         <v>445</v>
       </c>
@@ -18350,7 +18349,7 @@
         <v>107152163</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="191" t="s">
         <v>445</v>
       </c>
@@ -18413,7 +18412,7 @@
         <v>107152163</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="191" t="s">
         <v>445</v>
       </c>
@@ -18476,7 +18475,7 @@
         <v>107152163</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="191" t="s">
         <v>445</v>
       </c>
@@ -18539,7 +18538,7 @@
         <v>107152163</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="191" t="s">
         <v>445</v>
       </c>
@@ -18602,7 +18601,7 @@
         <v>107152163</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="191" t="s">
         <v>445</v>
       </c>
@@ -18665,7 +18664,7 @@
         <v>107152163</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="191" t="s">
         <v>445</v>
       </c>
@@ -18728,7 +18727,7 @@
         <v>107152163</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="191" t="s">
         <v>445</v>
       </c>
@@ -18791,7 +18790,7 @@
         <v>107152163</v>
       </c>
     </row>
-    <row r="66" spans="1:25" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="191" t="s">
         <v>445</v>
       </c>
@@ -18854,7 +18853,7 @@
         <v>107152163</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="191" t="s">
         <v>445</v>
       </c>
@@ -18917,7 +18916,7 @@
         <v>107152163</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="191" t="s">
         <v>445</v>
       </c>
@@ -18980,7 +18979,7 @@
         <v>107152163</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="191" t="s">
         <v>445</v>
       </c>
@@ -19043,7 +19042,7 @@
         <v>107152163</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="191" t="s">
         <v>445</v>
       </c>
@@ -19106,7 +19105,7 @@
         <v>107152163</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="191" t="s">
         <v>445</v>
       </c>
@@ -19169,7 +19168,7 @@
         <v>107152163</v>
       </c>
     </row>
-    <row r="72" spans="1:25" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="191" t="s">
         <v>445</v>
       </c>
@@ -19232,7 +19231,7 @@
         <v>107152163</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="191" t="s">
         <v>445</v>
       </c>
@@ -19295,7 +19294,7 @@
         <v>107152163</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="191" t="s">
         <v>445</v>
       </c>
@@ -19358,7 +19357,7 @@
         <v>107152163</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="191" t="s">
         <v>445</v>
       </c>
@@ -19424,7 +19423,7 @@
         <v>107152163</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="191" t="s">
         <v>470</v>
       </c>
@@ -19441,7 +19440,7 @@
         <v>297</v>
       </c>
       <c r="F76" s="237" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="G76" s="191" t="s">
         <v>383</v>
@@ -19487,7 +19486,7 @@
         <v>107152704</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="191" t="s">
         <v>470</v>
       </c>
@@ -19504,7 +19503,7 @@
         <v>297</v>
       </c>
       <c r="F77" s="237" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="G77" s="191" t="s">
         <v>383</v>
@@ -19549,7 +19548,7 @@
         <v>107152704</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="191" t="s">
         <v>470</v>
       </c>
@@ -19566,7 +19565,7 @@
         <v>297</v>
       </c>
       <c r="F78" s="237" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="G78" s="191" t="s">
         <v>383</v>
@@ -19611,7 +19610,7 @@
         <v>107152704</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="191" t="s">
         <v>470</v>
       </c>
@@ -19628,7 +19627,7 @@
         <v>297</v>
       </c>
       <c r="F79" s="237" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="G79" s="191" t="s">
         <v>383</v>
@@ -19673,7 +19672,7 @@
         <v>107152704</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="191" t="s">
         <v>470</v>
       </c>
@@ -19690,7 +19689,7 @@
         <v>297</v>
       </c>
       <c r="F80" s="237" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="G80" s="191" t="s">
         <v>383</v>
@@ -19735,7 +19734,7 @@
         <v>107152704</v>
       </c>
     </row>
-    <row r="81" spans="1:27" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="191" t="s">
         <v>470</v>
       </c>
@@ -19752,7 +19751,7 @@
         <v>297</v>
       </c>
       <c r="F81" s="237" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="G81" s="191" t="s">
         <v>383</v>
@@ -19797,7 +19796,7 @@
         <v>107152704</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="191" t="s">
         <v>470</v>
       </c>
@@ -19814,7 +19813,7 @@
         <v>297</v>
       </c>
       <c r="F82" s="237" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="G82" s="191" t="s">
         <v>383</v>
@@ -19859,7 +19858,7 @@
         <v>107152704</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="191" t="s">
         <v>470</v>
       </c>
@@ -19876,7 +19875,7 @@
         <v>297</v>
       </c>
       <c r="F83" s="237" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="G83" s="191" t="s">
         <v>383</v>
@@ -19921,7 +19920,7 @@
         <v>107152704</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="191" t="s">
         <v>470</v>
       </c>
@@ -19938,7 +19937,7 @@
         <v>297</v>
       </c>
       <c r="F84" s="237" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="G84" s="191" t="s">
         <v>383</v>
@@ -19983,7 +19982,7 @@
         <v>107152704</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="191" t="s">
         <v>470</v>
       </c>
@@ -20000,7 +19999,7 @@
         <v>297</v>
       </c>
       <c r="F85" s="237" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="G85" s="191" t="s">
         <v>383</v>
@@ -20045,7 +20044,7 @@
         <v>107152704</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="191" t="s">
         <v>470</v>
       </c>
@@ -20062,7 +20061,7 @@
         <v>297</v>
       </c>
       <c r="F86" s="237" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="G86" s="191" t="s">
         <v>383</v>
@@ -20107,7 +20106,7 @@
         <v>107152704</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="191" t="s">
         <v>470</v>
       </c>
@@ -20124,7 +20123,7 @@
         <v>297</v>
       </c>
       <c r="F87" s="237" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="G87" s="191" t="s">
         <v>383</v>
@@ -20169,7 +20168,7 @@
         <v>107152704</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="191" t="s">
         <v>470</v>
       </c>
@@ -20186,7 +20185,7 @@
         <v>297</v>
       </c>
       <c r="F88" s="237" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="G88" s="191" t="s">
         <v>383</v>
@@ -20234,7 +20233,7 @@
         <v>107152704</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="191" t="s">
         <v>476</v>
       </c>
@@ -20293,7 +20292,7 @@
         <v>107272606</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="191" t="s">
         <v>476</v>
       </c>
@@ -20352,7 +20351,7 @@
         <v>107272606</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="191" t="s">
         <v>476</v>
       </c>
@@ -20411,7 +20410,7 @@
         <v>107272606</v>
       </c>
     </row>
-    <row r="92" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="191" t="s">
         <v>476</v>
       </c>
@@ -20470,7 +20469,7 @@
         <v>107272606</v>
       </c>
     </row>
-    <row r="93" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="191" t="s">
         <v>476</v>
       </c>
@@ -20532,7 +20531,7 @@
         <v>107272606</v>
       </c>
     </row>
-    <row r="94" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="191" t="s">
         <v>478</v>
       </c>
@@ -20598,7 +20597,7 @@
       <c r="Z94" s="292"/>
       <c r="AA94" s="292"/>
     </row>
-    <row r="95" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="191" t="s">
         <v>478</v>
       </c>
@@ -20664,7 +20663,7 @@
       <c r="Z95" s="292"/>
       <c r="AA95" s="292"/>
     </row>
-    <row r="96" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="191" t="s">
         <v>478</v>
       </c>
@@ -20734,7 +20733,7 @@
         <v>107152370</v>
       </c>
     </row>
-    <row r="97" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="191" t="s">
         <v>478</v>
       </c>
@@ -20804,7 +20803,7 @@
         <v>107152370</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="191" t="s">
         <v>478</v>
       </c>
@@ -20874,7 +20873,7 @@
         <v>107152370</v>
       </c>
     </row>
-    <row r="99" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="191" t="s">
         <v>478</v>
       </c>
@@ -20944,7 +20943,7 @@
         <v>107152370</v>
       </c>
     </row>
-    <row r="100" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="191" t="s">
         <v>478</v>
       </c>
@@ -21014,7 +21013,7 @@
         <v>107152370</v>
       </c>
     </row>
-    <row r="101" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="191" t="s">
         <v>478</v>
       </c>
@@ -21084,7 +21083,7 @@
         <v>107152370</v>
       </c>
     </row>
-    <row r="102" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="191" t="s">
         <v>478</v>
       </c>
@@ -21154,7 +21153,7 @@
         <v>107152370</v>
       </c>
     </row>
-    <row r="103" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="191" t="s">
         <v>478</v>
       </c>
@@ -21224,7 +21223,7 @@
         <v>107152370</v>
       </c>
     </row>
-    <row r="104" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="191" t="s">
         <v>478</v>
       </c>
@@ -21294,7 +21293,7 @@
         <v>107152370</v>
       </c>
     </row>
-    <row r="105" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="191" t="s">
         <v>478</v>
       </c>
@@ -21367,7 +21366,7 @@
         <v>107152370</v>
       </c>
     </row>
-    <row r="106" spans="1:27" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="191" t="s">
         <v>484</v>
       </c>
@@ -21431,7 +21430,7 @@
         <v>114937498</v>
       </c>
     </row>
-    <row r="107" spans="1:27" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="191" t="s">
         <v>484</v>
       </c>
@@ -21495,7 +21494,7 @@
         <v>114937498</v>
       </c>
     </row>
-    <row r="108" spans="1:27" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="191" t="s">
         <v>484</v>
       </c>
@@ -21559,7 +21558,7 @@
         <v>114937498</v>
       </c>
     </row>
-    <row r="109" spans="1:27" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="191" t="s">
         <v>484</v>
       </c>
@@ -21623,7 +21622,7 @@
         <v>114937498</v>
       </c>
     </row>
-    <row r="110" spans="1:27" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="191" t="s">
         <v>484</v>
       </c>
@@ -21687,7 +21686,7 @@
         <v>114937498</v>
       </c>
     </row>
-    <row r="111" spans="1:27" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="191" t="s">
         <v>484</v>
       </c>
@@ -21754,7 +21753,7 @@
         <v>114937498</v>
       </c>
     </row>
-    <row r="112" spans="1:27" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27" ht="31" x14ac:dyDescent="0.35">
       <c r="A112" s="191" t="s">
         <v>491</v>
       </c>
@@ -21825,7 +21824,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="113" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="191" t="s">
         <v>491</v>
       </c>
@@ -21892,7 +21891,7 @@
         <v>122989657</v>
       </c>
     </row>
-    <row r="114" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="191" t="s">
         <v>491</v>
       </c>
@@ -21959,7 +21958,7 @@
         <v>122989657</v>
       </c>
     </row>
-    <row r="115" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="191" t="s">
         <v>491</v>
       </c>
@@ -22026,7 +22025,7 @@
         <v>122989657</v>
       </c>
     </row>
-    <row r="116" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="191" t="s">
         <v>491</v>
       </c>
@@ -22093,7 +22092,7 @@
         <v>122989657</v>
       </c>
     </row>
-    <row r="117" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="191" t="s">
         <v>491</v>
       </c>
@@ -22160,7 +22159,7 @@
         <v>122989657</v>
       </c>
     </row>
-    <row r="118" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="191" t="s">
         <v>491</v>
       </c>
@@ -22229,7 +22228,7 @@
         <v>122989657</v>
       </c>
     </row>
-    <row r="119" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="191" t="s">
         <v>491</v>
       </c>
@@ -22296,7 +22295,7 @@
         <v>122989657</v>
       </c>
     </row>
-    <row r="120" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="191" t="s">
         <v>491</v>
       </c>
@@ -22365,7 +22364,7 @@
         <v>122989657</v>
       </c>
     </row>
-    <row r="121" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="191" t="s">
         <v>491</v>
       </c>
@@ -22432,7 +22431,7 @@
         <v>122989657</v>
       </c>
     </row>
-    <row r="122" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="191" t="s">
         <v>491</v>
       </c>
@@ -22499,7 +22498,7 @@
         <v>122989657</v>
       </c>
     </row>
-    <row r="123" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="191" t="s">
         <v>345</v>
       </c>
@@ -22569,7 +22568,7 @@
         <v>122989657</v>
       </c>
     </row>
-    <row r="124" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="191" t="s">
         <v>491</v>
       </c>
@@ -22636,7 +22635,7 @@
         <v>122989657</v>
       </c>
     </row>
-    <row r="125" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="191" t="s">
         <v>491</v>
       </c>
@@ -22706,7 +22705,7 @@
         <v>122989657</v>
       </c>
     </row>
-    <row r="126" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="191" t="s">
         <v>128</v>
       </c>
@@ -22777,7 +22776,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="127" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="191" t="s">
         <v>128</v>
       </c>
@@ -22845,7 +22844,7 @@
         <v>111658833</v>
       </c>
     </row>
-    <row r="128" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="191" t="s">
         <v>128</v>
       </c>
@@ -22913,7 +22912,7 @@
         <v>111658833</v>
       </c>
     </row>
-    <row r="129" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="191" t="s">
         <v>128</v>
       </c>
@@ -22981,7 +22980,7 @@
         <v>111658833</v>
       </c>
     </row>
-    <row r="130" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="191" t="s">
         <v>128</v>
       </c>
@@ -23049,7 +23048,7 @@
         <v>111658833</v>
       </c>
     </row>
-    <row r="131" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="191" t="s">
         <v>128</v>
       </c>
@@ -23117,7 +23116,7 @@
         <v>111658833</v>
       </c>
     </row>
-    <row r="132" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A132" s="191" t="s">
         <v>128</v>
       </c>
@@ -23185,7 +23184,7 @@
         <v>111658833</v>
       </c>
     </row>
-    <row r="133" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133" s="191" t="s">
         <v>128</v>
       </c>
@@ -23253,7 +23252,7 @@
         <v>111658833</v>
       </c>
     </row>
-    <row r="134" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134" s="191" t="s">
         <v>128</v>
       </c>
@@ -23321,7 +23320,7 @@
         <v>111658833</v>
       </c>
     </row>
-    <row r="135" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A135" s="191" t="s">
         <v>128</v>
       </c>
@@ -23389,7 +23388,7 @@
         <v>111658833</v>
       </c>
     </row>
-    <row r="136" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A136" s="191" t="s">
         <v>128</v>
       </c>
@@ -23457,7 +23456,7 @@
         <v>111658833</v>
       </c>
     </row>
-    <row r="137" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A137" s="191" t="s">
         <v>128</v>
       </c>
@@ -23525,7 +23524,7 @@
         <v>111658833</v>
       </c>
     </row>
-    <row r="138" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A138" s="191" t="s">
         <v>128</v>
       </c>
@@ -23593,7 +23592,7 @@
         <v>111658833</v>
       </c>
     </row>
-    <row r="139" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" s="191" t="s">
         <v>128</v>
       </c>
@@ -23660,7 +23659,7 @@
         <v>111658833</v>
       </c>
     </row>
-    <row r="140" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="191" t="s">
         <v>128</v>
       </c>
@@ -23730,7 +23729,7 @@
         <v>111658833</v>
       </c>
     </row>
-    <row r="141" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A141" s="191" t="s">
         <v>510</v>
       </c>
@@ -23793,7 +23792,7 @@
         <v>111502459</v>
       </c>
     </row>
-    <row r="142" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A142" s="191" t="s">
         <v>510</v>
       </c>
@@ -23854,7 +23853,7 @@
         <v>111502459</v>
       </c>
     </row>
-    <row r="143" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A143" s="191" t="s">
         <v>510</v>
       </c>
@@ -23915,7 +23914,7 @@
         <v>111502459</v>
       </c>
     </row>
-    <row r="144" spans="1:27" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A144" s="191" t="s">
         <v>510</v>
       </c>
@@ -23976,7 +23975,7 @@
         <v>111502459</v>
       </c>
     </row>
-    <row r="145" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A145" s="191" t="s">
         <v>510</v>
       </c>
@@ -24037,7 +24036,7 @@
         <v>111502459</v>
       </c>
     </row>
-    <row r="146" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" s="191" t="s">
         <v>510</v>
       </c>
@@ -24098,7 +24097,7 @@
         <v>111502459</v>
       </c>
     </row>
-    <row r="147" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A147" s="191" t="s">
         <v>510</v>
       </c>
@@ -24162,7 +24161,7 @@
         <v>111502459</v>
       </c>
     </row>
-    <row r="148" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A148" s="191" t="s">
         <v>518</v>
       </c>
@@ -24226,7 +24225,7 @@
         <v>107152594</v>
       </c>
     </row>
-    <row r="149" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A149" s="191" t="s">
         <v>518</v>
       </c>
@@ -24293,7 +24292,7 @@
         <v>107152594</v>
       </c>
     </row>
-    <row r="150" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A150" s="191" t="s">
         <v>518</v>
       </c>
@@ -24355,7 +24354,7 @@
         <v>107152594</v>
       </c>
     </row>
-    <row r="151" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A151" s="191" t="s">
         <v>518</v>
       </c>
@@ -24417,7 +24416,7 @@
         <v>107152594</v>
       </c>
     </row>
-    <row r="152" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A152" s="191" t="s">
         <v>518</v>
       </c>
@@ -24479,7 +24478,7 @@
         <v>107152594</v>
       </c>
     </row>
-    <row r="153" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A153" s="191" t="s">
         <v>518</v>
       </c>
@@ -24541,7 +24540,7 @@
         <v>107152594</v>
       </c>
     </row>
-    <row r="154" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A154" s="191" t="s">
         <v>518</v>
       </c>
@@ -24606,7 +24605,7 @@
         <v>107152594</v>
       </c>
     </row>
-    <row r="155" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A155" s="191" t="s">
         <v>525</v>
       </c>
@@ -24673,7 +24672,7 @@
         <v>107152594</v>
       </c>
     </row>
-    <row r="156" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A156" s="191" t="s">
         <v>525</v>
       </c>
@@ -24736,7 +24735,7 @@
         <v>107152594</v>
       </c>
     </row>
-    <row r="157" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A157" s="191" t="s">
         <v>525</v>
       </c>
@@ -24799,7 +24798,7 @@
         <v>107152594</v>
       </c>
     </row>
-    <row r="158" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A158" s="191" t="s">
         <v>525</v>
       </c>
@@ -24862,7 +24861,7 @@
         <v>107152594</v>
       </c>
     </row>
-    <row r="159" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A159" s="191" t="s">
         <v>525</v>
       </c>
@@ -24925,7 +24924,7 @@
         <v>107152594</v>
       </c>
     </row>
-    <row r="160" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A160" s="191" t="s">
         <v>525</v>
       </c>
@@ -24989,7 +24988,7 @@
         <v>107152594</v>
       </c>
     </row>
-    <row r="161" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A161" s="191" t="s">
         <v>525</v>
       </c>
@@ -25056,7 +25055,7 @@
         <v>107152594</v>
       </c>
     </row>
-    <row r="162" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A162" s="191" t="s">
         <v>530</v>
       </c>
@@ -25127,7 +25126,7 @@
       <c r="AE162" s="292"/>
       <c r="AF162" s="292"/>
     </row>
-    <row r="163" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A163" s="191" t="s">
         <v>530</v>
       </c>
@@ -25198,7 +25197,7 @@
       <c r="AE163" s="292"/>
       <c r="AF163" s="292"/>
     </row>
-    <row r="164" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A164" s="191" t="s">
         <v>530</v>
       </c>
@@ -25269,7 +25268,7 @@
       <c r="AE164" s="292"/>
       <c r="AF164" s="292"/>
     </row>
-    <row r="165" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A165" s="191" t="s">
         <v>530</v>
       </c>
@@ -25340,7 +25339,7 @@
       <c r="AE165" s="292"/>
       <c r="AF165" s="292"/>
     </row>
-    <row r="166" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A166" s="191" t="s">
         <v>530</v>
       </c>
@@ -25411,7 +25410,7 @@
       <c r="AE166" s="292"/>
       <c r="AF166" s="292"/>
     </row>
-    <row r="167" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A167" s="191" t="s">
         <v>530</v>
       </c>
@@ -25482,7 +25481,7 @@
       <c r="AE167" s="292"/>
       <c r="AF167" s="292"/>
     </row>
-    <row r="168" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A168" s="191" t="s">
         <v>530</v>
       </c>
@@ -25553,7 +25552,7 @@
       <c r="AE168" s="292"/>
       <c r="AF168" s="292"/>
     </row>
-    <row r="169" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A169" s="191" t="s">
         <v>530</v>
       </c>
@@ -25627,7 +25626,7 @@
       <c r="AE169" s="292"/>
       <c r="AF169" s="292"/>
     </row>
-    <row r="170" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A170" s="191" t="s">
         <v>530</v>
       </c>
@@ -25701,7 +25700,7 @@
         <v>107152357</v>
       </c>
     </row>
-    <row r="171" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A171" s="191" t="s">
         <v>541</v>
       </c>
@@ -25775,7 +25774,7 @@
         <v>107152357</v>
       </c>
     </row>
-    <row r="172" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A172" s="191" t="s">
         <v>541</v>
       </c>
@@ -25849,7 +25848,7 @@
         <v>107152357</v>
       </c>
     </row>
-    <row r="173" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A173" s="191" t="s">
         <v>541</v>
       </c>
@@ -25923,7 +25922,7 @@
         <v>107152357</v>
       </c>
     </row>
-    <row r="174" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A174" s="191" t="s">
         <v>541</v>
       </c>
@@ -25997,7 +25996,7 @@
         <v>107152357</v>
       </c>
     </row>
-    <row r="175" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A175" s="191" t="s">
         <v>541</v>
       </c>
@@ -26071,7 +26070,7 @@
         <v>107152357</v>
       </c>
     </row>
-    <row r="176" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A176" s="191" t="s">
         <v>541</v>
       </c>
@@ -26145,7 +26144,7 @@
         <v>107152357</v>
       </c>
     </row>
-    <row r="177" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A177" s="191" t="s">
         <v>541</v>
       </c>
@@ -26222,7 +26221,7 @@
         <v>107152357</v>
       </c>
     </row>
-    <row r="178" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A178" s="191" t="s">
         <v>541</v>
       </c>
@@ -26293,7 +26292,7 @@
       <c r="AE178" s="292"/>
       <c r="AF178" s="292"/>
     </row>
-    <row r="179" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A179" s="191" t="s">
         <v>547</v>
       </c>
@@ -26362,7 +26361,7 @@
       <c r="AE179" s="292"/>
       <c r="AF179" s="292"/>
     </row>
-    <row r="180" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A180" s="191" t="s">
         <v>547</v>
       </c>
@@ -26431,7 +26430,7 @@
       <c r="AE180" s="292"/>
       <c r="AF180" s="292"/>
     </row>
-    <row r="181" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A181" s="191" t="s">
         <v>547</v>
       </c>
@@ -26500,7 +26499,7 @@
       <c r="AE181" s="292"/>
       <c r="AF181" s="292"/>
     </row>
-    <row r="182" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A182" s="191" t="s">
         <v>547</v>
       </c>
@@ -26569,7 +26568,7 @@
       <c r="AE182" s="292"/>
       <c r="AF182" s="292"/>
     </row>
-    <row r="183" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A183" s="191" t="s">
         <v>547</v>
       </c>
@@ -26638,7 +26637,7 @@
       <c r="AE183" s="292"/>
       <c r="AF183" s="292"/>
     </row>
-    <row r="184" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A184" s="191" t="s">
         <v>547</v>
       </c>
@@ -26707,7 +26706,7 @@
       <c r="AE184" s="292"/>
       <c r="AF184" s="292"/>
     </row>
-    <row r="185" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A185" s="191" t="s">
         <v>547</v>
       </c>
@@ -26776,7 +26775,7 @@
       <c r="AE185" s="292"/>
       <c r="AF185" s="292"/>
     </row>
-    <row r="186" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A186" s="191" t="s">
         <v>547</v>
       </c>
@@ -26848,7 +26847,7 @@
       <c r="AE186" s="292"/>
       <c r="AF186" s="292"/>
     </row>
-    <row r="187" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A187" s="191" t="s">
         <v>548</v>
       </c>
@@ -26920,7 +26919,7 @@
         <v>107152357</v>
       </c>
     </row>
-    <row r="188" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A188" s="191" t="s">
         <v>548</v>
       </c>
@@ -26992,7 +26991,7 @@
         <v>107152357</v>
       </c>
     </row>
-    <row r="189" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A189" s="191" t="s">
         <v>548</v>
       </c>
@@ -27064,7 +27063,7 @@
         <v>107152357</v>
       </c>
     </row>
-    <row r="190" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A190" s="191" t="s">
         <v>548</v>
       </c>
@@ -27136,7 +27135,7 @@
         <v>107152357</v>
       </c>
     </row>
-    <row r="191" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A191" s="191" t="s">
         <v>548</v>
       </c>
@@ -27208,7 +27207,7 @@
         <v>107152357</v>
       </c>
     </row>
-    <row r="192" spans="1:32" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A192" s="191" t="s">
         <v>548</v>
       </c>
@@ -27280,7 +27279,7 @@
         <v>107152357</v>
       </c>
     </row>
-    <row r="193" spans="1:28" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A193" s="191" t="s">
         <v>548</v>
       </c>
@@ -27352,7 +27351,7 @@
         <v>107152357</v>
       </c>
     </row>
-    <row r="194" spans="1:28" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A194" s="191" t="s">
         <v>548</v>
       </c>
@@ -27424,7 +27423,7 @@
         <v>107152357</v>
       </c>
     </row>
-    <row r="195" spans="1:28" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A195" s="191" t="s">
         <v>548</v>
       </c>
@@ -27496,7 +27495,7 @@
         <v>107152357</v>
       </c>
     </row>
-    <row r="196" spans="1:28" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A196" s="191" t="s">
         <v>548</v>
       </c>
@@ -27571,29 +27570,23 @@
         <v>107152357</v>
       </c>
     </row>
-    <row r="197" spans="1:28" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="N197" s="303">
         <f>SUM(N4:N196)</f>
         <v>3646.2000000000012</v>
       </c>
     </row>
-    <row r="198" spans="1:28" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="199" spans="1:28" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="200" spans="1:28" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="201" spans="1:28" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="202" spans="1:28" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="203" spans="1:28" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="204" spans="1:28" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="205" spans="1:28" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="206" spans="1:28" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="198" spans="1:28" ht="15.5" x14ac:dyDescent="0.35"/>
+    <row r="199" spans="1:28" ht="15.5" x14ac:dyDescent="0.35"/>
+    <row r="200" spans="1:28" ht="15.5" x14ac:dyDescent="0.35"/>
+    <row r="201" spans="1:28" ht="15.5" x14ac:dyDescent="0.35"/>
+    <row r="202" spans="1:28" ht="15.5" x14ac:dyDescent="0.35"/>
+    <row r="203" spans="1:28" ht="15.5" x14ac:dyDescent="0.35"/>
+    <row r="204" spans="1:28" ht="15.5" x14ac:dyDescent="0.35"/>
+    <row r="205" spans="1:28" ht="15.5" x14ac:dyDescent="0.35"/>
+    <row r="206" spans="1:28" ht="15.5" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <autoFilter ref="A2:U197" xr:uid="{AB482DDE-1DFC-48D3-A733-D9657488584C}">
-    <filterColumn colId="17">
-      <filters>
-        <filter val="Gold Hill School"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:U197" xr:uid="{AB482DDE-1DFC-48D3-A733-D9657488584C}"/>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -27611,7 +27604,7 @@
       <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
@@ -27640,7 +27633,7 @@
     <col min="27" max="27" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>552</v>
       </c>
@@ -27720,7 +27713,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>107152131</v>
       </c>
@@ -27788,13 +27781,13 @@
         <v>0</v>
       </c>
       <c r="Z2" s="314" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="AA2" s="314" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>138232649</v>
       </c>
@@ -27865,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="Z3" s="314" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="AA3" s="314" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>111658833</v>
       </c>
@@ -27942,13 +27935,13 @@
         <v>566</v>
       </c>
       <c r="Z4" s="314" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="AA4" s="314" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>107152163</v>
       </c>
@@ -28025,7 +28018,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>107152229</v>
       </c>
@@ -28096,7 +28089,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>107152265</v>
       </c>
@@ -28152,7 +28145,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="314" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="V7" s="314" t="s">
         <v>576</v>
@@ -28167,13 +28160,13 @@
         <v>566</v>
       </c>
       <c r="Z7" s="314" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="AA7" s="314" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>147521014</v>
       </c>
@@ -28247,7 +28240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>107152290</v>
       </c>
@@ -28318,13 +28311,13 @@
         <v>566</v>
       </c>
       <c r="Z9" s="314" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="AA9" s="314" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>107152357</v>
       </c>
@@ -28401,7 +28394,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>107152370</v>
       </c>
@@ -28469,13 +28462,13 @@
         <v>566</v>
       </c>
       <c r="Z11" s="314" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="AA11" s="314" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>107152390</v>
       </c>
@@ -28549,7 +28542,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>137032958</v>
       </c>
@@ -28626,7 +28619,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>111502459</v>
       </c>
@@ -28694,13 +28687,13 @@
         <v>566</v>
       </c>
       <c r="Z14" s="314" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="AA14" s="314" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>142893063</v>
       </c>
@@ -28774,7 +28767,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>107152440</v>
       </c>
@@ -28842,13 +28835,13 @@
         <v>566</v>
       </c>
       <c r="Z16" s="314" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="AA16" s="314" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>107152460</v>
       </c>
@@ -28925,7 +28918,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>122989657</v>
       </c>
@@ -28999,7 +28992,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>107152473</v>
       </c>
@@ -29070,13 +29063,13 @@
         <v>566</v>
       </c>
       <c r="Z19" s="314" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="AA19" s="314" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>108682188</v>
       </c>
@@ -29147,13 +29140,13 @@
         <v>566</v>
       </c>
       <c r="Z20" s="314" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="AA20" s="314" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>107152500</v>
       </c>
@@ -29224,13 +29217,13 @@
         <v>566</v>
       </c>
       <c r="Z21" s="314" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="AA21" s="314" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>107152549</v>
       </c>
@@ -29298,13 +29291,13 @@
         <v>566</v>
       </c>
       <c r="Z22" s="314" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="AA22" s="314" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>111658139</v>
       </c>
@@ -29375,13 +29368,13 @@
         <v>0</v>
       </c>
       <c r="Z23" s="314" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="AA23" s="314" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>107152594</v>
       </c>
@@ -29452,13 +29445,13 @@
         <v>566</v>
       </c>
       <c r="Z24" s="314" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="AA24" s="314" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>107152670</v>
       </c>
@@ -29535,7 +29528,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>118591584</v>
       </c>
@@ -29609,7 +29602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>107152695</v>
       </c>
@@ -29677,13 +29670,13 @@
         <v>0</v>
       </c>
       <c r="Z27" s="314" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="AA27" s="314" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>107152704</v>
       </c>
@@ -29754,13 +29747,13 @@
         <v>566</v>
       </c>
       <c r="Z28" s="314" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="AA28" s="314" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>118591255</v>
       </c>
@@ -29837,7 +29830,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>107152750</v>
       </c>
@@ -29908,13 +29901,13 @@
         <v>0</v>
       </c>
       <c r="Z30" s="314" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="AA30" s="314" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>113627156</v>
       </c>
@@ -29982,13 +29975,13 @@
         <v>566</v>
       </c>
       <c r="Z31" s="314" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="AA31" s="314" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>107152772</v>
       </c>
@@ -30059,13 +30052,13 @@
         <v>0</v>
       </c>
       <c r="Z32" s="314" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="AA32" s="314" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>107152783</v>
       </c>
@@ -30142,7 +30135,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>107152803</v>
       </c>
@@ -30219,7 +30212,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>114937498</v>
       </c>
@@ -30296,7 +30289,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>107152870</v>
       </c>
@@ -30364,13 +30357,13 @@
         <v>0</v>
       </c>
       <c r="Z36" s="314" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="AA36" s="314" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>107152873</v>
       </c>
@@ -30444,7 +30437,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>148428799</v>
       </c>
@@ -30512,13 +30505,13 @@
         <v>0</v>
       </c>
       <c r="Z38" s="314" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="AA38" s="314" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>122990310</v>
       </c>
@@ -30588,13 +30581,13 @@
         <v>0</v>
       </c>
       <c r="Z39" s="314" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="AA39" s="314" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>107153029</v>
       </c>
@@ -30668,7 +30661,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>147113970</v>
       </c>
@@ -30742,13 +30735,13 @@
         <v>0</v>
       </c>
       <c r="Z41" s="314" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="AA41" s="314" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>107153071</v>
       </c>
@@ -30825,7 +30818,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>107146029</v>
       </c>
@@ -30896,13 +30889,13 @@
         <v>566</v>
       </c>
       <c r="Z43" s="314" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="AA43" s="314" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>144328289</v>
       </c>
@@ -30970,13 +30963,13 @@
         <v>566</v>
       </c>
       <c r="Z44" s="314" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="AA44" s="314" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>107153112</v>
       </c>
@@ -31047,13 +31040,13 @@
         <v>566</v>
       </c>
       <c r="Z45" s="314" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="AA45" s="314" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>107153150</v>
       </c>
@@ -31130,7 +31123,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>107272606</v>
       </c>
@@ -31207,7 +31200,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>114937506</v>
       </c>
@@ -31278,7 +31271,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50">
         <f>COUNTA(A2:A48)</f>
         <v>47</v>
@@ -31307,7 +31300,7 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="8.83203125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
@@ -31336,12 +31329,12 @@
     <col min="30" max="30" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B1" s="189" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B2" s="189" t="s">
         <v>666</v>
       </c>
@@ -31349,7 +31342,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="131" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" s="131" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="131" t="s">
         <v>667</v>
       </c>
@@ -31441,7 +31434,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="154" t="s">
         <v>679</v>
       </c>
@@ -31484,7 +31477,7 @@
       <c r="AE5"/>
       <c r="AF5"/>
     </row>
-    <row r="6" spans="1:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="154" t="s">
         <v>679</v>
       </c>
@@ -31557,7 +31550,7 @@
       <c r="AE6"/>
       <c r="AF6"/>
     </row>
-    <row r="7" spans="1:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="154" t="s">
         <v>679</v>
       </c>
@@ -31636,7 +31629,7 @@
       <c r="AE7"/>
       <c r="AF7"/>
     </row>
-    <row r="8" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="115"/>
       <c r="C8" s="71" t="s">
         <v>255</v>
@@ -31675,7 +31668,7 @@
       <c r="AC8" s="142"/>
       <c r="AD8" s="142"/>
     </row>
-    <row r="9" spans="1:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="154" t="s">
         <v>679</v>
       </c>
@@ -31736,7 +31729,7 @@
       <c r="AE9"/>
       <c r="AF9"/>
     </row>
-    <row r="10" spans="1:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="154" t="s">
         <v>679</v>
       </c>
@@ -31807,7 +31800,7 @@
       <c r="AE10"/>
       <c r="AF10"/>
     </row>
-    <row r="11" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="115"/>
       <c r="C11" s="71" t="s">
         <v>255</v>
@@ -31864,7 +31857,7 @@
       <c r="AC11" s="144"/>
       <c r="AD11" s="142"/>
     </row>
-    <row r="12" spans="1:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="154" t="s">
         <v>679</v>
       </c>
@@ -31937,7 +31930,7 @@
       <c r="AE12"/>
       <c r="AF12"/>
     </row>
-    <row r="13" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="115"/>
       <c r="C13" s="71" t="s">
         <v>255</v>
@@ -32002,7 +31995,7 @@
       <c r="AC13" s="142"/>
       <c r="AD13" s="142"/>
     </row>
-    <row r="14" spans="1:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="154" t="s">
         <v>679</v>
       </c>
@@ -32063,7 +32056,7 @@
       <c r="AE14"/>
       <c r="AF14"/>
     </row>
-    <row r="15" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="115"/>
       <c r="C15" s="71" t="s">
         <v>279</v>
@@ -32136,7 +32129,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="154" t="s">
         <v>679</v>
       </c>
@@ -32187,7 +32180,7 @@
       <c r="AE16"/>
       <c r="AF16"/>
     </row>
-    <row r="17" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="115"/>
       <c r="C17" s="71" t="s">
         <v>252</v>
@@ -32252,7 +32245,7 @@
       <c r="AC17" s="142"/>
       <c r="AD17" s="142"/>
     </row>
-    <row r="18" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="115"/>
       <c r="C18" s="148" t="s">
         <v>257</v>
@@ -32293,7 +32286,7 @@
       <c r="AC18" s="142"/>
       <c r="AD18" s="142"/>
     </row>
-    <row r="19" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="115"/>
       <c r="C19" s="148" t="s">
         <v>257</v>
@@ -32334,7 +32327,7 @@
       <c r="AC19" s="142"/>
       <c r="AD19" s="142"/>
     </row>
-    <row r="20" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="115"/>
       <c r="C20" s="71" t="s">
         <v>257</v>
@@ -32411,7 +32404,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="115"/>
       <c r="C21" s="71" t="s">
         <v>257</v>
@@ -32476,7 +32469,7 @@
       <c r="AC21" s="47"/>
       <c r="AD21" s="47"/>
     </row>
-    <row r="22" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="115"/>
       <c r="C22" s="71" t="s">
         <v>257</v>
@@ -32543,7 +32536,7 @@
       <c r="AC22" s="47"/>
       <c r="AD22" s="47"/>
     </row>
-    <row r="23" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="115"/>
       <c r="C23" s="71" t="s">
         <v>257</v>
@@ -32602,7 +32595,7 @@
       <c r="AC23" s="71"/>
       <c r="AD23" s="71"/>
     </row>
-    <row r="24" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="115"/>
       <c r="C24" s="71" t="s">
         <v>257</v>
@@ -32667,7 +32660,7 @@
       <c r="AC24" s="47"/>
       <c r="AD24" s="47"/>
     </row>
-    <row r="25" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="115"/>
       <c r="C25" s="71" t="s">
         <v>288</v>
@@ -32724,7 +32717,7 @@
       <c r="AC25" s="142"/>
       <c r="AD25" s="142"/>
     </row>
-    <row r="26" spans="2:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="154" t="s">
         <v>679</v>
       </c>
@@ -32803,7 +32796,7 @@
       <c r="AE26"/>
       <c r="AF26"/>
     </row>
-    <row r="27" spans="2:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="154" t="s">
         <v>679</v>
       </c>
@@ -32860,7 +32853,7 @@
       <c r="AE27"/>
       <c r="AF27"/>
     </row>
-    <row r="28" spans="2:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="154" t="s">
         <v>679</v>
       </c>
@@ -32917,7 +32910,7 @@
       <c r="AE28"/>
       <c r="AF28"/>
     </row>
-    <row r="29" spans="2:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="154" t="s">
         <v>679</v>
       </c>
@@ -32980,7 +32973,7 @@
       <c r="AE29"/>
       <c r="AF29"/>
     </row>
-    <row r="30" spans="2:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="154" t="s">
         <v>679</v>
       </c>
@@ -33035,7 +33028,7 @@
       <c r="AE30"/>
       <c r="AF30"/>
     </row>
-    <row r="31" spans="2:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="154" t="s">
         <v>679</v>
       </c>
@@ -33096,7 +33089,7 @@
       <c r="AE31"/>
       <c r="AF31"/>
     </row>
-    <row r="32" spans="2:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="154" t="s">
         <v>679</v>
       </c>
@@ -33159,7 +33152,7 @@
       <c r="AE32"/>
       <c r="AF32"/>
     </row>
-    <row r="33" spans="2:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="173" t="s">
         <v>679</v>
       </c>
@@ -33222,7 +33215,7 @@
       <c r="AE33"/>
       <c r="AF33"/>
     </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D34" s="35"/>
       <c r="R34" s="1">
         <f>SUM(R6:R33)</f>
@@ -33253,7 +33246,7 @@
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
@@ -33261,7 +33254,7 @@
     <col min="4" max="4" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="189" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="189" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="189" t="s">
         <v>718</v>
       </c>
@@ -33278,12 +33271,12 @@
         <v>721</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="189" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>722</v>
       </c>
@@ -33297,7 +33290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -33311,7 +33304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>345</v>
       </c>
@@ -33325,7 +33318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>724</v>
       </c>
@@ -33336,7 +33329,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>724</v>
       </c>
@@ -33350,7 +33343,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>128</v>
       </c>
@@ -33359,7 +33352,7 @@
       </c>
       <c r="D8" s="190"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>729</v>
       </c>
@@ -33373,7 +33366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>732</v>
       </c>
@@ -33390,7 +33383,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>478</v>
       </c>
@@ -33407,7 +33400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>737</v>
       </c>
@@ -33415,12 +33408,12 @@
         <v>738</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="189" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>346</v>
       </c>
@@ -33434,12 +33427,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="189" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -33456,7 +33449,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>114</v>
       </c>
@@ -33473,7 +33466,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>350</v>
       </c>
@@ -33487,7 +33480,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>746</v>
       </c>
@@ -33504,7 +33497,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -33521,12 +33514,12 @@
         <v>387</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="189" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>300</v>
       </c>
@@ -33540,7 +33533,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>751</v>
       </c>
@@ -33557,7 +33550,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>470</v>
       </c>
@@ -33569,7 +33562,7 @@
       </c>
       <c r="D27" s="190"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>445</v>
       </c>
@@ -33583,12 +33576,12 @@
         <v>756</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="189" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>757</v>
       </c>
@@ -33596,7 +33589,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>758</v>
       </c>
@@ -33604,7 +33597,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>757</v>
       </c>
@@ -33612,7 +33605,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>759</v>
       </c>
@@ -33620,7 +33613,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>757</v>
       </c>
@@ -33628,7 +33621,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>762</v>
       </c>
@@ -33636,7 +33629,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>763</v>
       </c>
@@ -33644,7 +33637,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>762</v>
       </c>
@@ -33666,14 +33659,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="14.33203125" style="241" customWidth="1"/>
     <col min="7" max="7" width="24.33203125" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="212" t="s">
         <v>765</v>
       </c>
@@ -33699,7 +33692,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="239">
         <v>7</v>
       </c>
@@ -33725,7 +33718,7 @@
         <v>3034993253</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="239">
         <v>5</v>
       </c>
@@ -33749,7 +33742,7 @@
       </c>
       <c r="H3" s="240"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="239">
         <v>6</v>
       </c>
@@ -33773,7 +33766,7 @@
       </c>
       <c r="H4" s="240"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="239">
         <v>10</v>
       </c>
@@ -33797,7 +33790,7 @@
       </c>
       <c r="H5" s="240"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="239">
         <v>5</v>
       </c>
@@ -33821,7 +33814,7 @@
       </c>
       <c r="H6" s="240"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="239">
         <v>5</v>
       </c>
@@ -33843,7 +33836,7 @@
       <c r="G7" s="240"/>
       <c r="H7" s="240"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="239">
         <v>6</v>
       </c>
@@ -33867,7 +33860,7 @@
       </c>
       <c r="H8" s="240"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="239">
         <v>6</v>
       </c>
@@ -33893,7 +33886,7 @@
         <v>7209383466</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="239">
         <v>5</v>
       </c>
@@ -33917,7 +33910,7 @@
       </c>
       <c r="H10" s="240"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="239">
         <v>5</v>
       </c>
@@ -33943,7 +33936,7 @@
         <v>5183307872</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="239">
         <v>7</v>
       </c>
@@ -33967,7 +33960,7 @@
       </c>
       <c r="H12" s="240"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="239">
         <v>6</v>
       </c>
@@ -33991,7 +33984,7 @@
       </c>
       <c r="H13" s="240"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="239">
         <v>9</v>
       </c>
@@ -34015,7 +34008,7 @@
       </c>
       <c r="H14" s="240"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="239">
         <v>7</v>
       </c>
@@ -34039,7 +34032,7 @@
       </c>
       <c r="H15" s="240"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="239">
         <v>9</v>
       </c>
@@ -34054,7 +34047,7 @@
       <c r="G16" s="240"/>
       <c r="H16" s="240"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="239">
         <v>11</v>
       </c>
@@ -34069,7 +34062,7 @@
       <c r="G17" s="240"/>
       <c r="H17" s="240"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="239">
         <v>7</v>
       </c>
@@ -34095,7 +34088,7 @@
         <v>4048226731</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="239">
         <v>7</v>
       </c>
@@ -34121,7 +34114,7 @@
         <v>3607151412</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="239">
         <v>7</v>
       </c>
@@ -34145,7 +34138,7 @@
       </c>
       <c r="H20" s="240"/>
     </row>
-    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="239">
         <v>9</v>
       </c>
@@ -34169,7 +34162,7 @@
       </c>
       <c r="H21" s="240"/>
     </row>
-    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="239">
         <v>8</v>
       </c>
@@ -34193,7 +34186,7 @@
       </c>
       <c r="H22" s="240"/>
     </row>
-    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="239">
         <v>8</v>
       </c>
@@ -34217,7 +34210,7 @@
       </c>
       <c r="H23" s="240"/>
     </row>
-    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="239">
         <v>10</v>
       </c>
@@ -34241,7 +34234,7 @@
       </c>
       <c r="H24" s="240"/>
     </row>
-    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="239">
         <v>7</v>
       </c>
@@ -34267,7 +34260,7 @@
         <v>3036516523</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="239">
         <v>6</v>
       </c>
@@ -34291,7 +34284,7 @@
       </c>
       <c r="H26" s="240"/>
     </row>
-    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="239">
         <v>6</v>
       </c>
@@ -34315,7 +34308,7 @@
       </c>
       <c r="H27" s="240"/>
     </row>
-    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="239">
         <v>6</v>
       </c>
@@ -34341,7 +34334,7 @@
         <v>3039479477</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="239">
         <v>6</v>
       </c>
@@ -34365,7 +34358,7 @@
       </c>
       <c r="H29" s="240"/>
     </row>
-    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="239">
         <v>8</v>
       </c>
@@ -34405,7 +34398,7 @@
       <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
@@ -34433,7 +34426,7 @@
     <col min="25" max="25" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="221" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="221" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A1" s="222" t="s">
         <v>813</v>
       </c>
@@ -34510,7 +34503,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="214" t="s">
         <v>772</v>
       </c>
@@ -34558,7 +34551,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="214" t="s">
         <v>772</v>
       </c>
@@ -34606,7 +34599,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="214" t="s">
         <v>772</v>
       </c>
@@ -34678,7 +34671,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="214" t="s">
         <v>772</v>
       </c>
@@ -34752,7 +34745,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="214" t="s">
         <v>772</v>
       </c>
@@ -34826,7 +34819,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="214" t="s">
         <v>772</v>
       </c>
@@ -34898,7 +34891,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="214" t="s">
         <v>772</v>
       </c>
@@ -34970,7 +34963,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="214" t="s">
         <v>772</v>
       </c>
@@ -35018,7 +35011,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="214" t="s">
         <v>772</v>
       </c>
@@ -35090,7 +35083,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="214" t="s">
         <v>772</v>
       </c>
@@ -35162,7 +35155,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="214" t="s">
         <v>772</v>
       </c>
@@ -35210,7 +35203,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="13" spans="1:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B13" s="214" t="s">
         <v>772</v>
       </c>
@@ -35258,7 +35251,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="214" t="s">
         <v>772</v>
       </c>
@@ -35332,7 +35325,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="214" t="s">
         <v>772</v>
       </c>
@@ -35404,7 +35397,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="214" t="s">
         <v>775</v>
       </c>
@@ -35452,7 +35445,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="17" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="214" t="s">
         <v>775</v>
       </c>
@@ -35500,7 +35493,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="18" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B18" s="214" t="s">
         <v>775</v>
       </c>
@@ -35572,7 +35565,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="19" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="214" t="s">
         <v>775</v>
       </c>
@@ -35620,7 +35613,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="20" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B20" s="214" t="s">
         <v>775</v>
       </c>
@@ -35668,7 +35661,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="21" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="214" t="s">
         <v>775</v>
       </c>
@@ -35716,7 +35709,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="22" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="214" t="s">
         <v>775</v>
       </c>
@@ -35788,7 +35781,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="23" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B23" s="214" t="s">
         <v>775</v>
       </c>
@@ -35862,7 +35855,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="24" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="214" t="s">
         <v>775</v>
       </c>
@@ -35934,7 +35927,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="25" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="214" t="s">
         <v>775</v>
       </c>
@@ -36006,7 +35999,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="26" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="214" t="s">
         <v>776</v>
       </c>
@@ -36080,7 +36073,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="27" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="214" t="s">
         <v>776</v>
       </c>
@@ -36128,7 +36121,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="28" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="214" t="s">
         <v>776</v>
       </c>
@@ -36200,7 +36193,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="29" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="214" t="s">
         <v>776</v>
       </c>
@@ -36272,7 +36265,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="30" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B30" s="214" t="s">
         <v>776</v>
       </c>
@@ -36346,7 +36339,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="31" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B31" s="214" t="s">
         <v>776</v>
       </c>
@@ -36394,7 +36387,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="32" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B32" s="214" t="s">
         <v>776</v>
       </c>
@@ -36466,7 +36459,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="33" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B33" s="214" t="s">
         <v>776</v>
       </c>
@@ -36514,7 +36507,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="34" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="214" t="s">
         <v>776</v>
       </c>
@@ -36586,7 +36579,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="35" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B35" s="214" t="s">
         <v>776</v>
       </c>
@@ -36658,7 +36651,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="36" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B36" s="214" t="s">
         <v>776</v>
       </c>
@@ -36730,7 +36723,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="37" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B37" s="214" t="s">
         <v>776</v>
       </c>
@@ -36804,7 +36797,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="38" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B38" s="214" t="s">
         <v>777</v>
       </c>
@@ -36876,7 +36869,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="39" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B39" s="214" t="s">
         <v>777</v>
       </c>
@@ -36948,7 +36941,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="40" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B40" s="214" t="s">
         <v>777</v>
       </c>
@@ -37014,7 +37007,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="41" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B41" s="214" t="s">
         <v>777</v>
       </c>
@@ -37062,7 +37055,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="42" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B42" s="214" t="s">
         <v>777</v>
       </c>
@@ -37110,7 +37103,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="43" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B43" s="214" t="s">
         <v>777</v>
       </c>
@@ -37158,7 +37151,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="44" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B44" s="214" t="s">
         <v>777</v>
       </c>
@@ -37230,7 +37223,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="45" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B45" s="214" t="s">
         <v>777</v>
       </c>
@@ -37278,7 +37271,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="46" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B46" s="214" t="s">
         <v>777</v>
       </c>
@@ -37350,7 +37343,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="47" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B47" s="214" t="s">
         <v>777</v>
       </c>
@@ -37398,7 +37391,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="48" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B48" s="214" t="s">
         <v>777</v>
       </c>
@@ -37468,7 +37461,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="49" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B49" s="214" t="s">
         <v>777</v>
       </c>
@@ -37516,7 +37509,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="50" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B50" s="214" t="s">
         <v>777</v>
       </c>
@@ -37588,7 +37581,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="51" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B51" s="214" t="s">
         <v>777</v>
       </c>
@@ -37660,7 +37653,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="52" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B52" s="214" t="s">
         <v>777</v>
       </c>
@@ -37732,7 +37725,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="53" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B53" s="214" t="s">
         <v>777</v>
       </c>
@@ -37780,7 +37773,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="54" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B54" s="214" t="s">
         <v>777</v>
       </c>
@@ -37852,7 +37845,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="55" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B55" s="214" t="s">
         <v>777</v>
       </c>
@@ -37900,7 +37893,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="56" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B56" s="214" t="s">
         <v>777</v>
       </c>
@@ -37972,7 +37965,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="57" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B57" s="214" t="s">
         <v>777</v>
       </c>
@@ -38020,7 +38013,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="58" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B58" s="214" t="s">
         <v>953</v>
       </c>
@@ -38092,7 +38085,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="59" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B59" s="214" t="s">
         <v>953</v>
       </c>
@@ -38140,7 +38133,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="60" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B60" s="214" t="s">
         <v>778</v>
       </c>
@@ -38212,7 +38205,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="61" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B61" s="214" t="s">
         <v>778</v>
       </c>
@@ -38284,7 +38277,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="62" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B62" s="214" t="s">
         <v>778</v>
       </c>
@@ -38332,7 +38325,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="63" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B63" s="214" t="s">
         <v>778</v>
       </c>
@@ -38380,7 +38373,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="64" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="214" t="s">
         <v>778</v>
       </c>
@@ -38452,7 +38445,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="65" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B65" s="214" t="s">
         <v>778</v>
       </c>
@@ -38524,7 +38517,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="66" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B66" s="214" t="s">
         <v>778</v>
       </c>
@@ -38598,7 +38591,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="67" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B67" s="214" t="s">
         <v>778</v>
       </c>
@@ -38670,7 +38663,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="68" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B68" s="214" t="s">
         <v>782</v>
       </c>
@@ -38740,7 +38733,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="69" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B69" s="214" t="s">
         <v>782</v>
       </c>
@@ -38788,7 +38781,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="70" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B70" s="214" t="s">
         <v>782</v>
       </c>
@@ -38860,7 +38853,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="71" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B71" s="214" t="s">
         <v>782</v>
       </c>
@@ -38932,7 +38925,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="72" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B72" s="214" t="s">
         <v>782</v>
       </c>
@@ -38980,7 +38973,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="73" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B73" s="214" t="s">
         <v>782</v>
       </c>
@@ -39028,7 +39021,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="74" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B74" s="214" t="s">
         <v>782</v>
       </c>
@@ -39100,7 +39093,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="75" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B75" s="214" t="s">
         <v>782</v>
       </c>
@@ -39174,7 +39167,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="76" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B76" s="214" t="s">
         <v>782</v>
       </c>
@@ -39222,7 +39215,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="77" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B77" s="214" t="s">
         <v>782</v>
       </c>
@@ -39270,7 +39263,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="78" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B78" s="214" t="s">
         <v>953</v>
       </c>
@@ -39340,7 +39333,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="79" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B79" s="214" t="s">
         <v>953</v>
       </c>
@@ -39388,7 +39381,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="80" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B80" s="214" t="s">
         <v>784</v>
       </c>
@@ -39436,7 +39429,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="81" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B81" s="214" t="s">
         <v>784</v>
       </c>
@@ -39484,7 +39477,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="82" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B82" s="214" t="s">
         <v>784</v>
       </c>
@@ -39558,7 +39551,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="83" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B83" s="214" t="s">
         <v>784</v>
       </c>
@@ -39630,7 +39623,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="84" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B84" s="214" t="s">
         <v>784</v>
       </c>
@@ -39678,7 +39671,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="85" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B85" s="214" t="s">
         <v>784</v>
       </c>
@@ -39726,7 +39719,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="86" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B86" s="214" t="s">
         <v>784</v>
       </c>
@@ -39798,7 +39791,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="87" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B87" s="214" t="s">
         <v>784</v>
       </c>
@@ -39846,7 +39839,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="88" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B88" s="214" t="s">
         <v>784</v>
       </c>
@@ -39894,7 +39887,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="89" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B89" s="214" t="s">
         <v>784</v>
       </c>
@@ -39942,7 +39935,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="90" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B90" s="214" t="s">
         <v>785</v>
       </c>
@@ -40014,7 +40007,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="91" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B91" s="214" t="s">
         <v>785</v>
       </c>
@@ -40086,7 +40079,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="92" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B92" s="214" t="s">
         <v>785</v>
       </c>
@@ -40158,7 +40151,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="93" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B93" s="214" t="s">
         <v>785</v>
       </c>
@@ -40230,7 +40223,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="94" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B94" s="214" t="s">
         <v>785</v>
       </c>
@@ -40302,7 +40295,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="95" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B95" s="214" t="s">
         <v>785</v>
       </c>
@@ -40350,7 +40343,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="96" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B96" s="214" t="s">
         <v>953</v>
       </c>
@@ -40424,7 +40417,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="97" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B97" s="214" t="s">
         <v>953</v>
       </c>
@@ -40472,7 +40465,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="98" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B98" s="214" t="s">
         <v>785</v>
       </c>
@@ -40544,7 +40537,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="99" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B99" s="214" t="s">
         <v>785</v>
       </c>
@@ -40616,7 +40609,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="100" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B100" s="214" t="s">
         <v>787</v>
       </c>
@@ -40688,7 +40681,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="101" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B101" s="214" t="s">
         <v>787</v>
       </c>
@@ -40760,7 +40753,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="102" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B102" s="214" t="s">
         <v>787</v>
       </c>
@@ -40832,7 +40825,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="103" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B103" s="214" t="s">
         <v>787</v>
       </c>
@@ -40880,7 +40873,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="104" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B104" s="214" t="s">
         <v>787</v>
       </c>
@@ -40954,7 +40947,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="105" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B105" s="214" t="s">
         <v>787</v>
       </c>
@@ -41002,7 +40995,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="106" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B106" s="214" t="s">
         <v>787</v>
       </c>
@@ -41076,7 +41069,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="107" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B107" s="214" t="s">
         <v>787</v>
       </c>
@@ -41124,7 +41117,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="108" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B108" s="214" t="s">
         <v>787</v>
       </c>
@@ -41198,7 +41191,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="109" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B109" s="214" t="s">
         <v>787</v>
       </c>
@@ -41246,7 +41239,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="110" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B110" s="214" t="s">
         <v>787</v>
       </c>
@@ -41318,7 +41311,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="111" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B111" s="214" t="s">
         <v>787</v>
       </c>
@@ -41390,7 +41383,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="112" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B112" s="214" t="s">
         <v>953</v>
       </c>
@@ -41462,7 +41455,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="113" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B113" s="214" t="s">
         <v>953</v>
       </c>
@@ -41510,7 +41503,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="114" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B114" s="214" t="s">
         <v>788</v>
       </c>
@@ -41558,7 +41551,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="115" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B115" s="214" t="s">
         <v>788</v>
       </c>
@@ -41606,7 +41599,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="116" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B116" s="214" t="s">
         <v>788</v>
       </c>
@@ -41678,7 +41671,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="117" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B117" s="214" t="s">
         <v>788</v>
       </c>
@@ -41750,7 +41743,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="118" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B118" s="214" t="s">
         <v>788</v>
       </c>
@@ -41816,7 +41809,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="119" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B119" s="214" t="s">
         <v>788</v>
       </c>
@@ -41864,7 +41857,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="120" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B120" s="214" t="s">
         <v>788</v>
       </c>
@@ -41936,7 +41929,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="121" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B121" s="214" t="s">
         <v>788</v>
       </c>
@@ -41984,7 +41977,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="122" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B122" s="214" t="s">
         <v>788</v>
       </c>
@@ -42058,7 +42051,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="123" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B123" s="214" t="s">
         <v>788</v>
       </c>
@@ -42106,7 +42099,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="124" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B124" s="214" t="s">
         <v>788</v>
       </c>
@@ -42180,7 +42173,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="125" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B125" s="214" t="s">
         <v>788</v>
       </c>
@@ -42228,7 +42221,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="126" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B126" s="214" t="s">
         <v>790</v>
       </c>
@@ -42276,7 +42269,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="127" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B127" s="214" t="s">
         <v>790</v>
       </c>
@@ -42324,7 +42317,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="128" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B128" s="214" t="s">
         <v>790</v>
       </c>
@@ -42372,7 +42365,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="129" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B129" s="214" t="s">
         <v>790</v>
       </c>
@@ -42420,7 +42413,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="130" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B130" s="214" t="s">
         <v>790</v>
       </c>
@@ -42468,7 +42461,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="131" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B131" s="214" t="s">
         <v>790</v>
       </c>
@@ -42516,7 +42509,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="132" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B132" s="214" t="s">
         <v>790</v>
       </c>
@@ -42588,7 +42581,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="133" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B133" s="214" t="s">
         <v>790</v>
       </c>
@@ -42636,7 +42629,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="134" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B134" s="214" t="s">
         <v>790</v>
       </c>
@@ -42708,7 +42701,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="135" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B135" s="214" t="s">
         <v>790</v>
       </c>
@@ -42756,7 +42749,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="136" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B136" s="214" t="s">
         <v>790</v>
       </c>
@@ -42828,7 +42821,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="137" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B137" s="214" t="s">
         <v>790</v>
       </c>
@@ -42876,7 +42869,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="138" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B138" s="214" t="s">
         <v>790</v>
       </c>
@@ -42948,7 +42941,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="139" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B139" s="214" t="s">
         <v>790</v>
       </c>
@@ -43020,7 +43013,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="140" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B140" s="214" t="s">
         <v>790</v>
       </c>
@@ -43092,7 +43085,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="141" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B141" s="214" t="s">
         <v>790</v>
       </c>
@@ -43140,7 +43133,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="142" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B142" s="214" t="s">
         <v>790</v>
       </c>
@@ -43188,7 +43181,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="143" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B143" s="214" t="s">
         <v>790</v>
       </c>
@@ -43236,7 +43229,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="144" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B144" s="214" t="s">
         <v>791</v>
       </c>
@@ -43308,7 +43301,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="145" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B145" s="214" t="s">
         <v>791</v>
       </c>
@@ -43356,7 +43349,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="146" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B146" s="214" t="s">
         <v>791</v>
       </c>
@@ -43428,7 +43421,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="147" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B147" s="214" t="s">
         <v>791</v>
       </c>
@@ -43476,7 +43469,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="148" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B148" s="214" t="s">
         <v>791</v>
       </c>
@@ -43548,7 +43541,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="149" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B149" s="214" t="s">
         <v>791</v>
       </c>
@@ -43622,7 +43615,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="150" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B150" s="214" t="s">
         <v>791</v>
       </c>
@@ -43694,7 +43687,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="151" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B151" s="214" t="s">
         <v>791</v>
       </c>
@@ -43766,7 +43759,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="152" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B152" s="214" t="s">
         <v>791</v>
       </c>
@@ -43838,7 +43831,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="153" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B153" s="214" t="s">
         <v>791</v>
       </c>
@@ -43886,7 +43879,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="154" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B154" s="214" t="s">
         <v>791</v>
       </c>
@@ -43958,7 +43951,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="155" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B155" s="214" t="s">
         <v>791</v>
       </c>
@@ -44006,7 +43999,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="156" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B156" s="214" t="s">
         <v>791</v>
       </c>
@@ -44078,7 +44071,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="157" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B157" s="214" t="s">
         <v>791</v>
       </c>
@@ -44126,7 +44119,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="158" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B158" s="214" t="s">
         <v>792</v>
       </c>
@@ -44174,7 +44167,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="159" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B159" s="214" t="s">
         <v>792</v>
       </c>
@@ -44222,7 +44215,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="160" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B160" s="214" t="s">
         <v>792</v>
       </c>
@@ -44270,7 +44263,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="161" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B161" s="214" t="s">
         <v>792</v>
       </c>
@@ -44318,7 +44311,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="162" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B162" s="214" t="s">
         <v>792</v>
       </c>
@@ -44390,7 +44383,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="163" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B163" s="214" t="s">
         <v>792</v>
       </c>
@@ -44462,7 +44455,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="164" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B164" s="214" t="s">
         <v>792</v>
       </c>
@@ -44510,7 +44503,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="165" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B165" s="214" t="s">
         <v>792</v>
       </c>
@@ -44558,7 +44551,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="166" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B166" s="214" t="s">
         <v>792</v>
       </c>
@@ -44632,7 +44625,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="167" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B167" s="214" t="s">
         <v>792</v>
       </c>
@@ -44704,7 +44697,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="168" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B168" s="214" t="s">
         <v>792</v>
       </c>
@@ -44776,7 +44769,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="169" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B169" s="214" t="s">
         <v>792</v>
       </c>
@@ -44848,7 +44841,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="170" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B170" s="214" t="s">
         <v>792</v>
       </c>
@@ -44896,7 +44889,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="171" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B171" s="214" t="s">
         <v>792</v>
       </c>
@@ -44944,7 +44937,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="172" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B172" s="214" t="s">
         <v>792</v>
       </c>
@@ -44992,7 +44985,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="173" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B173" s="214" t="s">
         <v>792</v>
       </c>
@@ -45040,7 +45033,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="174" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B174" s="214" t="s">
         <v>792</v>
       </c>
@@ -45112,7 +45105,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="175" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B175" s="214" t="s">
         <v>792</v>
       </c>
@@ -45186,7 +45179,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="176" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B176" s="214" t="s">
         <v>794</v>
       </c>
@@ -45234,7 +45227,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="177" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B177" s="214" t="s">
         <v>794</v>
       </c>
@@ -45282,7 +45275,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="178" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B178" s="214" t="s">
         <v>794</v>
       </c>
@@ -45354,7 +45347,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="179" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B179" s="214" t="s">
         <v>794</v>
       </c>
@@ -45424,7 +45417,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="180" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B180" s="214" t="s">
         <v>794</v>
       </c>
@@ -45472,7 +45465,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="181" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B181" s="214" t="s">
         <v>794</v>
       </c>
@@ -45520,7 +45513,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="182" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B182" s="214" t="s">
         <v>794</v>
       </c>
@@ -45588,7 +45581,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="183" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B183" s="214" t="s">
         <v>794</v>
       </c>
@@ -45662,7 +45655,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="184" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B184" s="214" t="s">
         <v>794</v>
       </c>
@@ -45734,7 +45727,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="185" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B185" s="214" t="s">
         <v>794</v>
       </c>
@@ -45806,7 +45799,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="186" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B186" s="214" t="s">
         <v>794</v>
       </c>
@@ -45878,7 +45871,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="187" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B187" s="214" t="s">
         <v>794</v>
       </c>
@@ -45926,7 +45919,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="188" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B188" s="214" t="s">
         <v>794</v>
       </c>
@@ -45998,7 +45991,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="189" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B189" s="214" t="s">
         <v>794</v>
       </c>
@@ -46046,7 +46039,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="190" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B190" s="214" t="s">
         <v>794</v>
       </c>
@@ -46094,7 +46087,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="191" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B191" s="214" t="s">
         <v>794</v>
       </c>
@@ -46142,7 +46135,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="192" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B192" s="214" t="s">
         <v>794</v>
       </c>
@@ -46216,7 +46209,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="193" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B193" s="214" t="s">
         <v>794</v>
       </c>
@@ -46288,7 +46281,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="194" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B194" s="214" t="s">
         <v>794</v>
       </c>
@@ -46360,7 +46353,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="195" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B195" s="214" t="s">
         <v>794</v>
       </c>
@@ -46408,7 +46401,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="196" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B196" s="214" t="s">
         <v>794</v>
       </c>
@@ -46456,7 +46449,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="197" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B197" s="214" t="s">
         <v>794</v>
       </c>
@@ -46504,7 +46497,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="198" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B198" s="214" t="s">
         <v>795</v>
       </c>
@@ -46576,7 +46569,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="199" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B199" s="214" t="s">
         <v>795</v>
       </c>
@@ -46648,7 +46641,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="200" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B200" s="214" t="s">
         <v>795</v>
       </c>
@@ -46696,7 +46689,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="201" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B201" s="214" t="s">
         <v>795</v>
       </c>
@@ -46744,7 +46737,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="202" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B202" s="214" t="s">
         <v>795</v>
       </c>
@@ -46816,7 +46809,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="203" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B203" s="214" t="s">
         <v>795</v>
       </c>
@@ -46864,7 +46857,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="204" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B204" s="214" t="s">
         <v>795</v>
       </c>
@@ -46934,7 +46927,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="205" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B205" s="214" t="s">
         <v>795</v>
       </c>
@@ -47006,7 +46999,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="206" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B206" s="214" t="s">
         <v>795</v>
       </c>
@@ -47078,7 +47071,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="207" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B207" s="214" t="s">
         <v>795</v>
       </c>
@@ -47152,7 +47145,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="208" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B208" s="214" t="s">
         <v>795</v>
       </c>
@@ -47224,7 +47217,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="209" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B209" s="214" t="s">
         <v>795</v>
       </c>
@@ -47272,7 +47265,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="210" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B210" s="214" t="s">
         <v>795</v>
       </c>
@@ -47320,7 +47313,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="211" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B211" s="214" t="s">
         <v>795</v>
       </c>
@@ -47368,7 +47361,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="212" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B212" s="214" t="s">
         <v>797</v>
       </c>
@@ -47440,7 +47433,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="213" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B213" s="214" t="s">
         <v>797</v>
       </c>
@@ -47488,7 +47481,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="214" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B214" s="214" t="s">
         <v>797</v>
       </c>
@@ -47562,7 +47555,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="215" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B215" s="214" t="s">
         <v>797</v>
       </c>
@@ -47610,7 +47603,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="216" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B216" s="214" t="s">
         <v>797</v>
       </c>
@@ -47682,7 +47675,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="217" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B217" s="214" t="s">
         <v>797</v>
       </c>
@@ -47730,7 +47723,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="218" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B218" s="214" t="s">
         <v>797</v>
       </c>
@@ -47804,7 +47797,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="219" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B219" s="214" t="s">
         <v>797</v>
       </c>
@@ -47852,7 +47845,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="220" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B220" s="214" t="s">
         <v>797</v>
       </c>
@@ -47900,7 +47893,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="221" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B221" s="214" t="s">
         <v>797</v>
       </c>
@@ -47948,7 +47941,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="222" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B222" s="214" t="s">
         <v>797</v>
       </c>
@@ -48020,7 +48013,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="223" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B223" s="214" t="s">
         <v>797</v>
       </c>
@@ -48068,7 +48061,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="224" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B224" s="214" t="s">
         <v>797</v>
       </c>
@@ -48142,7 +48135,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="225" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B225" s="214" t="s">
         <v>797</v>
       </c>
@@ -48190,7 +48183,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="226" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B226" s="214" t="s">
         <v>798</v>
       </c>
@@ -48238,7 +48231,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="227" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B227" s="214" t="s">
         <v>798</v>
       </c>
@@ -48286,7 +48279,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="228" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B228" s="214" t="s">
         <v>798</v>
       </c>
@@ -48360,7 +48353,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="229" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B229" s="214" t="s">
         <v>798</v>
       </c>
@@ -48434,7 +48427,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="230" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B230" s="214" t="s">
         <v>798</v>
       </c>
@@ -48506,7 +48499,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="231" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B231" s="214" t="s">
         <v>798</v>
       </c>
@@ -48578,7 +48571,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="232" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B232" s="214" t="s">
         <v>798</v>
       </c>
@@ -48650,7 +48643,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="233" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B233" s="214" t="s">
         <v>798</v>
       </c>
@@ -48722,7 +48715,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="234" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B234" s="214" t="s">
         <v>798</v>
       </c>
@@ -48796,7 +48789,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="235" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B235" s="214" t="s">
         <v>798</v>
       </c>
@@ -48868,7 +48861,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="236" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B236" s="214" t="s">
         <v>798</v>
       </c>
@@ -48942,7 +48935,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="237" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B237" s="214" t="s">
         <v>798</v>
       </c>
@@ -48990,7 +48983,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="238" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B238" s="214" t="s">
         <v>798</v>
       </c>
@@ -49038,7 +49031,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="239" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B239" s="214" t="s">
         <v>798</v>
       </c>
@@ -49086,7 +49079,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="240" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B240" s="214" t="s">
         <v>800</v>
       </c>
@@ -49134,7 +49127,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="241" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B241" s="214" t="s">
         <v>800</v>
       </c>
@@ -49182,7 +49175,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="242" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B242" s="214" t="s">
         <v>800</v>
       </c>
@@ -49254,7 +49247,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="243" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B243" s="214" t="s">
         <v>800</v>
       </c>
@@ -49302,7 +49295,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="244" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B244" s="214" t="s">
         <v>800</v>
       </c>
@@ -49376,7 +49369,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="245" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B245" s="214" t="s">
         <v>800</v>
       </c>
@@ -49448,7 +49441,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="246" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B246" s="214" t="s">
         <v>800</v>
       </c>
@@ -49496,7 +49489,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="247" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B247" s="214" t="s">
         <v>800</v>
       </c>
@@ -49544,7 +49537,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="248" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B248" s="214" t="s">
         <v>800</v>
       </c>
@@ -49616,7 +49609,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="249" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B249" s="214" t="s">
         <v>800</v>
       </c>
@@ -49664,7 +49657,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="250" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B250" s="214" t="s">
         <v>800</v>
       </c>
@@ -49738,7 +49731,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="251" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B251" s="214" t="s">
         <v>800</v>
       </c>
@@ -49786,7 +49779,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="252" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B252" s="214" t="s">
         <v>800</v>
       </c>
@@ -49834,7 +49827,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="253" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B253" s="214" t="s">
         <v>800</v>
       </c>
@@ -49882,7 +49875,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="254" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B254" s="214" t="s">
         <v>800</v>
       </c>
@@ -49956,7 +49949,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="255" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B255" s="214" t="s">
         <v>800</v>
       </c>
@@ -50004,7 +49997,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="256" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B256" s="214" t="s">
         <v>800</v>
       </c>
@@ -50076,7 +50069,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="257" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B257" s="214" t="s">
         <v>800</v>
       </c>
@@ -50124,7 +50117,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="258" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B258" s="214" t="s">
         <v>802</v>
       </c>
@@ -50196,7 +50189,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="259" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B259" s="214" t="s">
         <v>802</v>
       </c>
@@ -50244,7 +50237,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="260" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B260" s="214" t="s">
         <v>802</v>
       </c>
@@ -50292,7 +50285,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="261" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B261" s="214" t="s">
         <v>802</v>
       </c>
@@ -50340,7 +50333,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="262" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B262" s="214" t="s">
         <v>802</v>
       </c>
@@ -50388,7 +50381,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="263" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B263" s="214" t="s">
         <v>802</v>
       </c>
@@ -50436,7 +50429,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="264" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B264" s="214" t="s">
         <v>802</v>
       </c>
@@ -50484,7 +50477,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="265" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B265" s="214" t="s">
         <v>802</v>
       </c>
@@ -50532,7 +50525,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="266" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B266" s="214" t="s">
         <v>802</v>
       </c>
@@ -50604,7 +50597,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="267" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B267" s="214" t="s">
         <v>802</v>
       </c>
@@ -50678,7 +50671,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="268" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B268" s="214" t="s">
         <v>802</v>
       </c>
@@ -50752,7 +50745,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="269" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B269" s="214" t="s">
         <v>802</v>
       </c>
@@ -50824,7 +50817,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="270" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B270" s="214" t="s">
         <v>802</v>
       </c>
@@ -50872,7 +50865,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="271" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B271" s="214" t="s">
         <v>802</v>
       </c>
@@ -50920,7 +50913,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="272" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B272" s="214" t="s">
         <v>802</v>
       </c>
@@ -50992,7 +50985,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="273" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B273" s="214" t="s">
         <v>802</v>
       </c>
@@ -51040,7 +51033,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="274" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B274" s="214" t="s">
         <v>803</v>
       </c>
@@ -51112,7 +51105,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="275" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B275" s="214" t="s">
         <v>803</v>
       </c>
@@ -51184,7 +51177,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="276" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B276" s="214" t="s">
         <v>803</v>
       </c>
@@ -51256,7 +51249,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="277" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B277" s="214" t="s">
         <v>803</v>
       </c>
@@ -51304,7 +51297,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="278" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B278" s="214" t="s">
         <v>803</v>
       </c>
@@ -51352,7 +51345,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="279" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B279" s="214" t="s">
         <v>803</v>
       </c>
@@ -51400,7 +51393,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="280" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B280" s="214" t="s">
         <v>803</v>
       </c>
@@ -51472,7 +51465,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="281" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B281" s="214" t="s">
         <v>803</v>
       </c>
@@ -51544,7 +51537,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="282" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B282" s="214" t="s">
         <v>803</v>
       </c>
@@ -51616,7 +51609,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="283" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B283" s="214" t="s">
         <v>803</v>
       </c>
@@ -51688,7 +51681,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="284" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B284" s="214" t="s">
         <v>803</v>
       </c>
@@ -51762,7 +51755,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="285" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B285" s="214" t="s">
         <v>803</v>
       </c>
@@ -51810,7 +51803,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="286" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B286" s="214" t="s">
         <v>803</v>
       </c>
@@ -51882,7 +51875,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="287" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B287" s="214" t="s">
         <v>803</v>
       </c>
@@ -51930,7 +51923,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="288" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B288" s="214" t="s">
         <v>803</v>
       </c>
@@ -51978,7 +51971,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="289" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B289" s="214" t="s">
         <v>803</v>
       </c>
@@ -52026,7 +52019,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="290" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B290" s="214" t="s">
         <v>804</v>
       </c>
@@ -52074,7 +52067,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="291" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B291" s="214" t="s">
         <v>804</v>
       </c>
@@ -52122,7 +52115,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="292" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B292" s="214" t="s">
         <v>804</v>
       </c>
@@ -52170,7 +52163,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="293" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B293" s="214" t="s">
         <v>804</v>
       </c>
@@ -52218,7 +52211,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="294" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B294" s="214" t="s">
         <v>804</v>
       </c>
@@ -52292,7 +52285,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="295" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B295" s="214" t="s">
         <v>804</v>
       </c>
@@ -52340,7 +52333,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="296" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B296" s="214" t="s">
         <v>804</v>
       </c>
@@ -52412,7 +52405,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="297" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B297" s="214" t="s">
         <v>804</v>
       </c>
@@ -52460,7 +52453,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="298" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B298" s="214" t="s">
         <v>804</v>
       </c>
@@ -52508,7 +52501,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="299" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B299" s="214" t="s">
         <v>804</v>
       </c>
@@ -52556,7 +52549,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="300" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B300" s="214" t="s">
         <v>804</v>
       </c>
@@ -52628,7 +52621,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="301" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B301" s="214" t="s">
         <v>804</v>
       </c>
@@ -52676,7 +52669,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="302" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B302" s="214" t="s">
         <v>804</v>
       </c>
@@ -52748,7 +52741,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="303" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B303" s="214" t="s">
         <v>804</v>
       </c>
@@ -52820,7 +52813,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="304" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B304" s="214" t="s">
         <v>804</v>
       </c>
@@ -52892,7 +52885,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="305" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B305" s="214" t="s">
         <v>804</v>
       </c>
@@ -52940,7 +52933,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="306" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B306" s="214" t="s">
         <v>804</v>
       </c>
@@ -53014,7 +53007,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="307" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B307" s="214" t="s">
         <v>804</v>
       </c>
@@ -53062,7 +53055,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="308" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B308" s="214" t="s">
         <v>804</v>
       </c>
@@ -53128,7 +53121,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="309" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B309" s="214" t="s">
         <v>804</v>
       </c>
@@ -53200,7 +53193,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="310" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B310" s="214" t="s">
         <v>806</v>
       </c>
@@ -53272,7 +53265,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="311" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B311" s="214" t="s">
         <v>806</v>
       </c>
@@ -53344,7 +53337,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="312" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B312" s="214" t="s">
         <v>806</v>
       </c>
@@ -53418,7 +53411,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="313" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B313" s="214" t="s">
         <v>806</v>
       </c>
@@ -53466,7 +53459,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="314" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B314" s="214" t="s">
         <v>806</v>
       </c>
@@ -53514,7 +53507,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="315" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B315" s="214" t="s">
         <v>806</v>
       </c>
@@ -53562,7 +53555,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="316" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B316" s="214" t="s">
         <v>806</v>
       </c>
@@ -53634,7 +53627,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="317" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B317" s="214" t="s">
         <v>806</v>
       </c>
@@ -53682,7 +53675,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="318" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B318" s="214" t="s">
         <v>806</v>
       </c>
@@ -53754,7 +53747,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="319" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B319" s="214" t="s">
         <v>806</v>
       </c>
@@ -53826,7 +53819,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="320" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B320" s="214" t="s">
         <v>806</v>
       </c>
@@ -53898,7 +53891,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="321" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B321" s="214" t="s">
         <v>806</v>
       </c>
@@ -53946,7 +53939,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="322" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B322" s="214" t="s">
         <v>806</v>
       </c>
@@ -53994,7 +53987,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="323" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B323" s="214" t="s">
         <v>806</v>
       </c>
@@ -54042,7 +54035,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="324" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B324" s="214" t="s">
         <v>807</v>
       </c>
@@ -54114,7 +54107,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="325" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B325" s="214" t="s">
         <v>807</v>
       </c>
@@ -54186,7 +54179,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="326" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B326" s="214" t="s">
         <v>807</v>
       </c>
@@ -54260,7 +54253,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="327" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B327" s="214" t="s">
         <v>807</v>
       </c>
@@ -54332,7 +54325,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="328" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B328" s="214" t="s">
         <v>807</v>
       </c>
@@ -54404,7 +54397,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="329" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B329" s="214" t="s">
         <v>807</v>
       </c>
@@ -54452,7 +54445,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="330" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B330" s="214" t="s">
         <v>807</v>
       </c>
@@ -54500,7 +54493,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="331" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B331" s="214" t="s">
         <v>807</v>
       </c>
@@ -54548,7 +54541,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="332" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B332" s="214" t="s">
         <v>807</v>
       </c>
@@ -54596,7 +54589,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="333" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B333" s="214" t="s">
         <v>807</v>
       </c>
@@ -54644,7 +54637,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="334" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B334" s="214" t="s">
         <v>807</v>
       </c>
@@ -54716,7 +54709,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="335" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B335" s="214" t="s">
         <v>807</v>
       </c>
@@ -54764,7 +54757,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="336" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B336" s="214" t="s">
         <v>809</v>
       </c>
@@ -54812,7 +54805,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="337" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B337" s="214" t="s">
         <v>809</v>
       </c>
@@ -54860,7 +54853,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="338" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B338" s="214" t="s">
         <v>809</v>
       </c>
@@ -54908,7 +54901,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="339" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B339" s="214" t="s">
         <v>809</v>
       </c>
@@ -54956,7 +54949,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="340" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B340" s="214" t="s">
         <v>809</v>
       </c>
@@ -55028,7 +55021,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="341" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B341" s="214" t="s">
         <v>809</v>
       </c>
@@ -55100,7 +55093,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="342" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B342" s="214" t="s">
         <v>809</v>
       </c>
@@ -55174,7 +55167,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="343" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B343" s="214" t="s">
         <v>809</v>
       </c>
@@ -55222,7 +55215,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="344" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B344" s="214" t="s">
         <v>809</v>
       </c>
@@ -55270,7 +55263,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="345" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B345" s="214" t="s">
         <v>809</v>
       </c>
@@ -55318,7 +55311,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="346" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B346" s="214" t="s">
         <v>809</v>
       </c>
@@ -55390,7 +55383,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="347" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B347" s="214" t="s">
         <v>809</v>
       </c>
@@ -55438,7 +55431,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="348" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B348" s="214" t="s">
         <v>810</v>
       </c>
@@ -55510,7 +55503,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="349" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B349" s="214" t="s">
         <v>810</v>
       </c>
@@ -55584,7 +55577,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="350" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B350" s="214" t="s">
         <v>810</v>
       </c>
@@ -55656,7 +55649,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="351" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B351" s="214" t="s">
         <v>810</v>
       </c>
@@ -55704,7 +55697,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="352" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B352" s="214" t="s">
         <v>810</v>
       </c>
@@ -55776,7 +55769,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="353" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B353" s="214" t="s">
         <v>810</v>
       </c>
@@ -55824,7 +55817,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="354" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B354" s="214" t="s">
         <v>810</v>
       </c>
@@ -55896,7 +55889,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="355" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B355" s="214" t="s">
         <v>810</v>
       </c>
@@ -55968,7 +55961,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="356" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B356" s="214" t="s">
         <v>810</v>
       </c>
@@ -56040,7 +56033,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="357" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B357" s="214" t="s">
         <v>810</v>
       </c>
@@ -56088,7 +56081,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="358" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B358" s="214" t="s">
         <v>810</v>
       </c>
@@ -56136,7 +56129,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="359" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B359" s="214" t="s">
         <v>810</v>
       </c>
@@ -56184,7 +56177,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="360" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B360" s="214" t="s">
         <v>811</v>
       </c>
@@ -56232,7 +56225,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="361" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B361" s="214" t="s">
         <v>811</v>
       </c>
@@ -56280,7 +56273,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="362" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B362" s="214" t="s">
         <v>811</v>
       </c>
@@ -56328,7 +56321,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="363" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B363" s="214" t="s">
         <v>811</v>
       </c>
@@ -56376,7 +56369,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="364" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B364" s="214" t="s">
         <v>811</v>
       </c>
@@ -56424,7 +56417,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="365" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B365" s="214" t="s">
         <v>811</v>
       </c>
@@ -56472,7 +56465,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="366" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B366" s="214" t="s">
         <v>811</v>
       </c>
@@ -56544,7 +56537,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="367" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B367" s="214" t="s">
         <v>811</v>
       </c>
@@ -56592,7 +56585,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="368" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B368" s="214" t="s">
         <v>811</v>
       </c>
@@ -56664,7 +56657,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="369" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B369" s="214" t="s">
         <v>811</v>
       </c>
@@ -56736,7 +56729,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="370" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B370" s="214" t="s">
         <v>811</v>
       </c>
@@ -56810,7 +56803,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="371" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B371" s="214" t="s">
         <v>811</v>
       </c>
@@ -56882,7 +56875,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="372" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B372" s="214" t="s">
         <v>812</v>
       </c>
@@ -56930,7 +56923,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="373" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B373" s="214" t="s">
         <v>812</v>
       </c>
@@ -56978,7 +56971,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="374" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B374" s="214" t="s">
         <v>812</v>
       </c>
@@ -57050,7 +57043,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="375" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B375" s="214" t="s">
         <v>812</v>
       </c>
@@ -57098,7 +57091,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="376" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B376" s="214" t="s">
         <v>812</v>
       </c>
@@ -57146,7 +57139,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="377" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B377" s="214" t="s">
         <v>812</v>
       </c>
@@ -57194,7 +57187,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="378" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B378" s="214" t="s">
         <v>812</v>
       </c>
@@ -57268,7 +57261,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="379" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B379" s="214" t="s">
         <v>812</v>
       </c>
@@ -57316,7 +57309,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="380" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B380" s="214" t="s">
         <v>812</v>
       </c>
@@ -57388,7 +57381,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="381" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B381" s="214" t="s">
         <v>812</v>
       </c>
@@ -57436,7 +57429,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="382" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B382" s="214" t="s">
         <v>812</v>
       </c>
@@ -57508,7 +57501,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="383" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B383" s="214" t="s">
         <v>812</v>
       </c>
@@ -57556,7 +57549,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="384" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B384" s="214" t="s">
         <v>812</v>
       </c>
@@ -57630,7 +57623,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="385" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B385" s="214" t="s">
         <v>812</v>
       </c>
@@ -57678,7 +57671,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="386" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B386" s="214" t="s">
         <v>812</v>
       </c>
@@ -57726,7 +57719,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="387" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:25" s="228" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B387" s="214" t="s">
         <v>812</v>
       </c>
@@ -57774,7 +57767,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="388" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B388" s="216"/>
       <c r="C388" s="216"/>
       <c r="D388" s="216"/>
@@ -57802,7 +57795,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="389" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B389" s="216"/>
       <c r="C389" s="216"/>
       <c r="D389" s="216"/>
@@ -57828,7 +57821,7 @@
       <c r="X389" s="216"/>
       <c r="Y389" s="216"/>
     </row>
-    <row r="390" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B390" s="216"/>
       <c r="C390" s="216"/>
       <c r="D390" s="216"/>
@@ -57854,7 +57847,7 @@
       <c r="X390" s="216"/>
       <c r="Y390" s="216"/>
     </row>
-    <row r="391" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B391" s="216"/>
       <c r="C391" s="216"/>
       <c r="D391" s="216"/>
@@ -57880,7 +57873,7 @@
       <c r="X391" s="216"/>
       <c r="Y391" s="216"/>
     </row>
-    <row r="392" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B392" s="216"/>
       <c r="C392" s="216"/>
       <c r="D392" s="216"/>
@@ -57906,7 +57899,7 @@
       <c r="X392" s="216"/>
       <c r="Y392" s="216"/>
     </row>
-    <row r="393" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B393" s="216"/>
       <c r="C393" s="216"/>
       <c r="D393" s="216"/>
@@ -57932,7 +57925,7 @@
       <c r="X393" s="216"/>
       <c r="Y393" s="216"/>
     </row>
-    <row r="394" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B394" s="216"/>
       <c r="C394" s="216"/>
       <c r="D394" s="216"/>
@@ -57958,7 +57951,7 @@
       <c r="X394" s="216"/>
       <c r="Y394" s="216"/>
     </row>
-    <row r="395" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B395" s="216"/>
       <c r="C395" s="216"/>
       <c r="D395" s="216"/>
@@ -57984,7 +57977,7 @@
       <c r="X395" s="216"/>
       <c r="Y395" s="216"/>
     </row>
-    <row r="396" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B396" s="216"/>
       <c r="C396" s="216"/>
       <c r="D396" s="216"/>
@@ -58010,7 +58003,7 @@
       <c r="X396" s="216"/>
       <c r="Y396" s="216"/>
     </row>
-    <row r="397" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B397" s="216"/>
       <c r="C397" s="216"/>
       <c r="D397" s="216"/>
@@ -58036,7 +58029,7 @@
       <c r="X397" s="216"/>
       <c r="Y397" s="216"/>
     </row>
-    <row r="398" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B398" s="216"/>
       <c r="C398" s="216"/>
       <c r="D398" s="216"/>
@@ -58062,7 +58055,7 @@
       <c r="X398" s="216"/>
       <c r="Y398" s="216"/>
     </row>
-    <row r="399" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B399" s="216"/>
       <c r="C399" s="216"/>
       <c r="D399" s="216"/>
@@ -58088,7 +58081,7 @@
       <c r="X399" s="216"/>
       <c r="Y399" s="216"/>
     </row>
-    <row r="400" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B400" s="216"/>
       <c r="C400" s="216"/>
       <c r="D400" s="216"/>
@@ -58114,7 +58107,7 @@
       <c r="X400" s="216"/>
       <c r="Y400" s="216"/>
     </row>
-    <row r="401" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B401" s="216"/>
       <c r="C401" s="216"/>
       <c r="D401" s="216"/>
@@ -58140,7 +58133,7 @@
       <c r="X401" s="216"/>
       <c r="Y401" s="216"/>
     </row>
-    <row r="402" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B402" s="216"/>
       <c r="C402" s="216"/>
       <c r="D402" s="216"/>
@@ -58166,7 +58159,7 @@
       <c r="X402" s="216"/>
       <c r="Y402" s="216"/>
     </row>
-    <row r="403" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B403" s="216"/>
       <c r="C403" s="216"/>
       <c r="D403" s="216"/>
@@ -58192,7 +58185,7 @@
       <c r="X403" s="216"/>
       <c r="Y403" s="216"/>
     </row>
-    <row r="404" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B404" s="216"/>
       <c r="C404" s="216"/>
       <c r="D404" s="216"/>
@@ -58218,7 +58211,7 @@
       <c r="X404" s="216"/>
       <c r="Y404" s="216"/>
     </row>
-    <row r="405" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B405" s="216"/>
       <c r="C405" s="216"/>
       <c r="D405" s="216"/>
@@ -58244,7 +58237,7 @@
       <c r="X405" s="216"/>
       <c r="Y405" s="216"/>
     </row>
-    <row r="406" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B406" s="216"/>
       <c r="C406" s="216"/>
       <c r="D406" s="216"/>
@@ -58270,7 +58263,7 @@
       <c r="X406" s="216"/>
       <c r="Y406" s="216"/>
     </row>
-    <row r="407" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B407" s="216"/>
       <c r="C407" s="216"/>
       <c r="D407" s="216"/>
@@ -58296,7 +58289,7 @@
       <c r="X407" s="216"/>
       <c r="Y407" s="216"/>
     </row>
-    <row r="408" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B408" s="216"/>
       <c r="C408" s="216"/>
       <c r="D408" s="216"/>
@@ -58322,7 +58315,7 @@
       <c r="X408" s="216"/>
       <c r="Y408" s="216"/>
     </row>
-    <row r="409" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B409" s="216"/>
       <c r="C409" s="216"/>
       <c r="D409" s="216"/>
@@ -58348,7 +58341,7 @@
       <c r="X409" s="216"/>
       <c r="Y409" s="216"/>
     </row>
-    <row r="410" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B410" s="216"/>
       <c r="C410" s="216"/>
       <c r="D410" s="216"/>
@@ -58374,7 +58367,7 @@
       <c r="X410" s="216"/>
       <c r="Y410" s="216"/>
     </row>
-    <row r="411" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B411" s="216"/>
       <c r="C411" s="216"/>
       <c r="D411" s="216"/>
@@ -58400,7 +58393,7 @@
       <c r="X411" s="216"/>
       <c r="Y411" s="216"/>
     </row>
-    <row r="412" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B412" s="216"/>
       <c r="C412" s="216"/>
       <c r="D412" s="216"/>
@@ -58426,7 +58419,7 @@
       <c r="X412" s="216"/>
       <c r="Y412" s="216"/>
     </row>
-    <row r="413" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B413" s="216"/>
       <c r="C413" s="216"/>
       <c r="D413" s="216"/>
@@ -58452,7 +58445,7 @@
       <c r="X413" s="216"/>
       <c r="Y413" s="216"/>
     </row>
-    <row r="414" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B414" s="216"/>
       <c r="C414" s="216"/>
       <c r="D414" s="216"/>
@@ -58478,7 +58471,7 @@
       <c r="X414" s="216"/>
       <c r="Y414" s="216"/>
     </row>
-    <row r="415" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B415" s="216"/>
       <c r="C415" s="216"/>
       <c r="D415" s="216"/>
@@ -58504,7 +58497,7 @@
       <c r="X415" s="216"/>
       <c r="Y415" s="216"/>
     </row>
-    <row r="416" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B416" s="216"/>
       <c r="C416" s="216"/>
       <c r="D416" s="216"/>
@@ -58530,7 +58523,7 @@
       <c r="X416" s="216"/>
       <c r="Y416" s="216"/>
     </row>
-    <row r="417" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B417" s="216"/>
       <c r="C417" s="216"/>
       <c r="D417" s="216"/>
@@ -58556,7 +58549,7 @@
       <c r="X417" s="216"/>
       <c r="Y417" s="216"/>
     </row>
-    <row r="418" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B418" s="216"/>
       <c r="C418" s="216"/>
       <c r="D418" s="216"/>
@@ -58582,7 +58575,7 @@
       <c r="X418" s="216"/>
       <c r="Y418" s="216"/>
     </row>
-    <row r="419" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B419" s="216"/>
       <c r="C419" s="216"/>
       <c r="D419" s="216"/>
@@ -58608,7 +58601,7 @@
       <c r="X419" s="216"/>
       <c r="Y419" s="216"/>
     </row>
-    <row r="420" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B420" s="216"/>
       <c r="C420" s="216"/>
       <c r="D420" s="216"/>
@@ -58634,7 +58627,7 @@
       <c r="X420" s="216"/>
       <c r="Y420" s="216"/>
     </row>
-    <row r="421" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B421" s="216"/>
       <c r="C421" s="216"/>
       <c r="D421" s="216"/>
@@ -58660,7 +58653,7 @@
       <c r="X421" s="216"/>
       <c r="Y421" s="216"/>
     </row>
-    <row r="422" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B422" s="216"/>
       <c r="C422" s="216"/>
       <c r="D422" s="216"/>
@@ -58686,7 +58679,7 @@
       <c r="X422" s="216"/>
       <c r="Y422" s="216"/>
     </row>
-    <row r="423" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B423" s="216"/>
       <c r="C423" s="216"/>
       <c r="D423" s="216"/>
@@ -58712,7 +58705,7 @@
       <c r="X423" s="216"/>
       <c r="Y423" s="216"/>
     </row>
-    <row r="424" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B424" s="216"/>
       <c r="C424" s="216"/>
       <c r="D424" s="216"/>
@@ -58738,7 +58731,7 @@
       <c r="X424" s="216"/>
       <c r="Y424" s="216"/>
     </row>
-    <row r="425" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B425" s="216"/>
       <c r="C425" s="216"/>
       <c r="D425" s="216"/>
@@ -58764,7 +58757,7 @@
       <c r="X425" s="216"/>
       <c r="Y425" s="216"/>
     </row>
-    <row r="426" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B426" s="216"/>
       <c r="C426" s="216"/>
       <c r="D426" s="216"/>
@@ -58790,7 +58783,7 @@
       <c r="X426" s="216"/>
       <c r="Y426" s="216"/>
     </row>
-    <row r="427" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B427" s="216"/>
       <c r="C427" s="216"/>
       <c r="D427" s="216"/>
@@ -58816,7 +58809,7 @@
       <c r="X427" s="216"/>
       <c r="Y427" s="216"/>
     </row>
-    <row r="428" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B428" s="216"/>
       <c r="C428" s="216"/>
       <c r="D428" s="216"/>
@@ -58842,7 +58835,7 @@
       <c r="X428" s="216"/>
       <c r="Y428" s="216"/>
     </row>
-    <row r="429" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B429" s="216"/>
       <c r="C429" s="216"/>
       <c r="D429" s="216"/>
@@ -58868,7 +58861,7 @@
       <c r="X429" s="216"/>
       <c r="Y429" s="216"/>
     </row>
-    <row r="430" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B430" s="216"/>
       <c r="C430" s="216"/>
       <c r="D430" s="216"/>
@@ -58894,7 +58887,7 @@
       <c r="X430" s="216"/>
       <c r="Y430" s="216"/>
     </row>
-    <row r="431" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B431" s="216"/>
       <c r="C431" s="216"/>
       <c r="D431" s="216"/>
@@ -58927,37 +58920,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <File_x0020_Status xmlns="468cbdd3-d3d3-4e82-8059-0422a0ced137">New</File_x0020_Status>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="468cbdd3-d3d3-4e82-8059-0422a0ced137">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0dfd8431-8843-419e-a5b8-b962f6af7970" xsi:nil="true"/>
-    <SharedWithUsers xmlns="0dfd8431-8843-419e-a5b8-b962f6af7970">
-      <UserInfo>
-        <DisplayName>Pat Feeser</DisplayName>
-        <AccountId>21</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Carol Teal</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Amy Weinstein</DisplayName>
-        <AccountId>16</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Judi Bodinger</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -59221,27 +59189,43 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <File_x0020_Status xmlns="468cbdd3-d3d3-4e82-8059-0422a0ced137">New</File_x0020_Status>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="468cbdd3-d3d3-4e82-8059-0422a0ced137">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0dfd8431-8843-419e-a5b8-b962f6af7970" xsi:nil="true"/>
+    <SharedWithUsers xmlns="0dfd8431-8843-419e-a5b8-b962f6af7970">
+      <UserInfo>
+        <DisplayName>Pat Feeser</DisplayName>
+        <AccountId>21</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Carol Teal</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Amy Weinstein</DisplayName>
+        <AccountId>16</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Judi Bodinger</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9B6AD23-AEE2-4C27-A0A4-059BE5ECF9D1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B63C9676-74FA-4BDB-9BDE-5245C32823BA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="468cbdd3-d3d3-4e82-8059-0422a0ced137"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0dfd8431-8843-419e-a5b8-b962f6af7970"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -59266,9 +59250,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B63C9676-74FA-4BDB-9BDE-5245C32823BA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9B6AD23-AEE2-4C27-A0A4-059BE5ECF9D1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0dfd8431-8843-419e-a5b8-b962f6af7970"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="468cbdd3-d3d3-4e82-8059-0422a0ced137"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>